--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\projects\personal\layout\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EB7B83-B595-4645-9E2F-8857BB5ECC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EBF4D2-C4EF-4A6B-AEB1-7C41B88AFF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="795" yWindow="-120" windowWidth="37725" windowHeight="21840" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>

--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgaliamov\projects\personal\layout\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EBF4D2-C4EF-4A6B-AEB1-7C41B88AFF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1B917F-41F0-46DB-963A-03D2B6237DF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="-120" windowWidth="37725" windowHeight="21840" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="705" yWindow="-120" windowWidth="37815" windowHeight="21840" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>4-6: need to straighten or bend a finger, but without wrist move.</t>
   </si>
   <si>
-    <t>1: no movements</t>
-  </si>
-  <si>
     <t>2-4: natural straigth finger movements.</t>
   </si>
   <si>
@@ -238,10 +235,13 @@
     <t>'</t>
   </si>
   <si>
-    <t>to configure</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>to configure 42</t>
+  </si>
+  <si>
+    <t>1-2: no movements</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,14 +283,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -709,15 +701,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -730,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -757,9 +747,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="10" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,7 +804,7 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="17" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -874,7 +861,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -892,9 +879,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,7 +957,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1048,9 +1032,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,6 +1060,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1405,33 +1395,33 @@
   <dimension ref="B1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:T7"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="4.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="6" customWidth="1"/>
-    <col min="11" max="18" width="4.7109375" style="10" customWidth="1"/>
+    <col min="2" max="9" width="4.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="4" customWidth="1"/>
+    <col min="11" max="18" width="4.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="123">
+      <c r="M1" s="118">
         <v>1</v>
       </c>
-      <c r="N1" s="122">
+      <c r="N1" s="117">
         <v>1</v>
       </c>
-      <c r="O1" s="119">
+      <c r="O1" s="114">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P1" s="121">
+      <c r="P1" s="116">
         <v>1.2</v>
       </c>
-      <c r="Q1" s="120">
+      <c r="Q1" s="115">
         <v>1.8</v>
       </c>
       <c r="T1" t="s">
@@ -1439,1208 +1429,1208 @@
       </c>
     </row>
     <row r="2" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3">
+      <c r="B2" s="110">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44">
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41">
         <v>10</v>
       </c>
-      <c r="M2" s="45">
+      <c r="M2" s="42">
         <v>8</v>
       </c>
-      <c r="N2" s="46">
+      <c r="N2" s="43">
         <v>7</v>
       </c>
-      <c r="O2" s="47">
+      <c r="O2" s="44">
         <v>6</v>
       </c>
-      <c r="P2" s="47">
+      <c r="P2" s="44">
         <v>6</v>
       </c>
-      <c r="Q2" s="48">
+      <c r="Q2" s="45">
         <v>6</v>
       </c>
-      <c r="R2" s="118">
+      <c r="R2" s="113">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
+      <c r="B3" s="111">
         <v>8</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="111">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="111">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="110">
         <v>11</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="108">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="108">
         <v>13</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="49">
+      <c r="H3" s="108"/>
+      <c r="I3" s="4"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="46">
         <v>9</v>
       </c>
-      <c r="M3" s="50">
+      <c r="M3" s="47">
         <v>7</v>
       </c>
-      <c r="N3" s="51">
+      <c r="N3" s="48">
         <v>5</v>
       </c>
-      <c r="O3" s="52">
+      <c r="O3" s="49">
         <v>4</v>
       </c>
-      <c r="P3" s="56">
+      <c r="P3" s="53">
         <v>5</v>
       </c>
-      <c r="Q3" s="75">
+      <c r="Q3" s="71">
         <v>5</v>
       </c>
-      <c r="R3" s="53">
+      <c r="R3" s="50">
         <v>6</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="111">
+        <v>17</v>
+      </c>
+      <c r="E4" s="110">
+        <v>18</v>
+      </c>
+      <c r="F4" s="108">
+        <v>19</v>
+      </c>
+      <c r="G4" s="108">
+        <v>20</v>
+      </c>
+      <c r="H4" s="107"/>
+      <c r="I4" s="4"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="51">
+        <v>8</v>
+      </c>
+      <c r="M4" s="47">
+        <v>6</v>
+      </c>
+      <c r="N4" s="52">
+        <v>1</v>
+      </c>
+      <c r="O4" s="49">
+        <v>1</v>
+      </c>
+      <c r="P4" s="53">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>3</v>
+      </c>
+      <c r="R4" s="55">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4">
-        <v>17</v>
-      </c>
-      <c r="E4" s="4">
-        <v>18</v>
-      </c>
-      <c r="F4" s="7">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="54">
+    <row r="5" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>23</v>
+      </c>
+      <c r="D5" s="111">
+        <v>24</v>
+      </c>
+      <c r="E5" s="110">
+        <v>25</v>
+      </c>
+      <c r="F5" s="108">
+        <v>26</v>
+      </c>
+      <c r="G5" s="119">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="56">
+        <v>10</v>
+      </c>
+      <c r="L5" s="57">
+        <v>9</v>
+      </c>
+      <c r="M5" s="120">
+        <v>4</v>
+      </c>
+      <c r="N5" s="58">
+        <v>3</v>
+      </c>
+      <c r="O5" s="59">
+        <v>4</v>
+      </c>
+      <c r="P5" s="60">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="61">
+        <v>2</v>
+      </c>
+      <c r="R5" s="62">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="50">
+    </row>
+    <row r="6" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="110">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="63">
+        <v>10</v>
+      </c>
+      <c r="L6" s="64">
+        <v>4</v>
+      </c>
+      <c r="M6" s="65">
+        <v>1</v>
+      </c>
+      <c r="N6" s="66">
+        <v>4</v>
+      </c>
+      <c r="O6" s="67">
         <v>6</v>
       </c>
-      <c r="N4" s="55">
+      <c r="P6" s="68">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="69">
+        <v>6</v>
+      </c>
+      <c r="R6" s="70">
+        <v>6</v>
+      </c>
+      <c r="T6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="51">
+        <v>6</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="T7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="110">
         <v>1</v>
       </c>
-      <c r="O4" s="52">
-        <v>1</v>
-      </c>
-      <c r="P4" s="56">
+      <c r="C9" s="110">
         <v>2</v>
       </c>
-      <c r="Q4" s="57">
+      <c r="D9" s="110">
         <v>3</v>
       </c>
-      <c r="R4" s="58">
+      <c r="E9" s="110">
         <v>4</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4">
-        <v>25</v>
-      </c>
-      <c r="F5" s="4">
-        <v>26</v>
-      </c>
-      <c r="G5" s="9">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="K5" s="59">
-        <v>10</v>
-      </c>
-      <c r="L5" s="60">
-        <v>9</v>
-      </c>
-      <c r="M5" s="61">
+      <c r="F9" s="108">
+        <v>5</v>
+      </c>
+      <c r="G9" s="108">
         <v>6</v>
       </c>
-      <c r="N5" s="62">
-        <v>3</v>
-      </c>
-      <c r="O5" s="63">
-        <v>4</v>
-      </c>
-      <c r="P5" s="64">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="65">
-        <v>2</v>
-      </c>
-      <c r="R5" s="66">
-        <v>4</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5">
-        <v>34</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="K6" s="67">
-        <v>10</v>
-      </c>
-      <c r="L6" s="68">
-        <v>4</v>
-      </c>
-      <c r="M6" s="69">
-        <v>1</v>
-      </c>
-      <c r="N6" s="70">
-        <v>4</v>
-      </c>
-      <c r="O6" s="71">
-        <v>6</v>
-      </c>
-      <c r="P6" s="72">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="73">
-        <v>6</v>
-      </c>
-      <c r="R6" s="74">
-        <v>6</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="54">
-        <v>6</v>
-      </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="T7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="10" t="s">
+      <c r="H9" s="109">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="115">
-        <v>1</v>
-      </c>
-      <c r="C9" s="115">
-        <v>2</v>
-      </c>
-      <c r="D9" s="115">
-        <v>3</v>
-      </c>
-      <c r="E9" s="115">
-        <v>4</v>
-      </c>
-      <c r="F9" s="112">
-        <v>5</v>
-      </c>
-      <c r="G9" s="112">
-        <v>6</v>
-      </c>
-      <c r="H9" s="114">
-        <v>7</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="L9" s="25">
+      <c r="I9" s="4"/>
+      <c r="L9" s="22">
         <f>L2*$M$1</f>
         <v>10</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="10">
         <f t="shared" ref="M9:N9" si="0">M2*$M$1</f>
         <v>8</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="26">
         <f>O2*$O$1</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="26">
         <f>P2*$O$1</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="39">
         <f>Q2*$O$1</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="R9" s="117">
+      <c r="R9" s="112">
         <f>R2*$O$1</f>
         <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="116">
+      <c r="B10" s="111">
         <v>8</v>
       </c>
-      <c r="C10" s="116">
+      <c r="C10" s="111">
         <v>9</v>
       </c>
-      <c r="D10" s="116">
+      <c r="D10" s="111">
         <v>10</v>
       </c>
-      <c r="E10" s="115">
+      <c r="E10" s="110">
         <v>11</v>
       </c>
-      <c r="F10" s="112">
+      <c r="F10" s="108">
         <v>12</v>
       </c>
-      <c r="G10" s="112">
+      <c r="G10" s="108">
         <v>13</v>
       </c>
-      <c r="H10" s="114">
+      <c r="H10" s="109">
         <v>14</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="L10" s="26">
+      <c r="I10" s="4"/>
+      <c r="L10" s="23">
         <f>L3*$M$1</f>
         <v>9</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <f t="shared" ref="M10:N10" si="1">M3*$M$1</f>
         <v>7</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="27">
         <f t="shared" ref="O10:O13" si="2">O3*$O$1</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="30">
         <f t="shared" ref="P10:R13" si="3">P3*$P$1</f>
         <v>6</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="37">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="R10" s="41">
+      <c r="R10" s="38">
         <f t="shared" si="3"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>16</v>
       </c>
-      <c r="D11" s="116">
+      <c r="D11" s="111">
         <v>17</v>
       </c>
-      <c r="E11" s="115">
+      <c r="E11" s="110">
         <v>18</v>
       </c>
-      <c r="F11" s="112">
+      <c r="F11" s="108">
         <v>19</v>
       </c>
-      <c r="G11" s="112">
+      <c r="G11" s="108">
         <v>20</v>
       </c>
-      <c r="H11" s="111">
+      <c r="H11" s="107">
         <v>21</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="L11" s="19">
+      <c r="I11" s="4"/>
+      <c r="L11" s="16">
         <f t="shared" ref="L11" si="4">L4*$N$1</f>
         <v>8</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="12">
         <f t="shared" ref="M11:N11" si="5">M4*$M$1</f>
         <v>6</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="33">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="27">
         <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="30">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="13">
         <f t="shared" ref="Q11:R13" si="6">Q4*$Q$1</f>
         <v>5.4</v>
       </c>
-      <c r="R11" s="37">
+      <c r="R11" s="34">
         <f t="shared" si="6"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>22</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>23</v>
       </c>
-      <c r="D12" s="116">
+      <c r="D12" s="111">
         <v>24</v>
       </c>
-      <c r="E12" s="115">
+      <c r="E12" s="110">
         <v>25</v>
       </c>
-      <c r="F12" s="112">
+      <c r="F12" s="108">
         <v>26</v>
       </c>
-      <c r="G12" s="113">
+      <c r="G12" s="119">
         <v>27</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>28</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>29</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="17">
         <f t="shared" ref="K12:M14" si="7">K5*$N$1</f>
         <v>10</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="19">
         <f t="shared" ref="L12" si="8">L5*$N$1</f>
         <v>9</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="121">
         <f t="shared" ref="M12:N12" si="9">M5*$M$1</f>
-        <v>6</v>
-      </c>
-      <c r="N12" s="17">
+        <v>4</v>
+      </c>
+      <c r="N12" s="14">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="28">
         <f t="shared" si="2"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="P12" s="34">
+      <c r="P12" s="31">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="15">
         <f t="shared" si="6"/>
         <v>3.6</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="35">
         <f t="shared" si="6"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>30</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>31</v>
       </c>
-      <c r="D13" s="116">
+      <c r="D13" s="111">
         <v>32</v>
       </c>
-      <c r="E13" s="115">
+      <c r="E13" s="110">
         <v>33</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>34</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>35</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>36</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>37</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="18">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="20">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="21">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="24">
         <f>N6*$N$1</f>
         <v>4</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="29">
         <f t="shared" si="2"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="P13" s="35">
+      <c r="P13" s="32">
         <f t="shared" si="3"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="25">
         <f t="shared" si="6"/>
         <v>10.8</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="36">
         <f t="shared" si="6"/>
         <v>10.8</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1">
         <v>38</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="16">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="109" t="str">
+      <c r="B15" s="105" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,E19:E56,)</f>
-        <v>"A1": 8.8,"A2": 6.6,"A3": 6.6,"A4": 6.6,"A5": 7,"A6": 8,"A7": 10,"A8": 7.2,"A9": 6,"A10": 6,"A11": 4.4,"A12": 5,"A13": 7,"A14": 9,"A15": 7.2,"A16": 5.4,"A17": 2.4,"A18": 1.1,"A19": 1,"A20": 6,"A21": 8,"A22": 7.2,"A23": 3.6,"A24": 4.8,"A25": 4.4,"A26": 3,"A27": 6,"A28": 9,"A29": 10,"A30": 10.8,"A31": 10.8,"A32": 7.2,"A33": 6.6,"A34": 4,"A35": 1,"A36": 4,"A37": 10,"A38": 6</v>
+        <v>"A1": 8.8,"A2": 6.6,"A3": 6.6,"A4": 6.6,"A5": 7,"A6": 8,"A7": 10,"A8": 7.2,"A9": 6,"A10": 6,"A11": 4.4,"A12": 5,"A13": 7,"A14": 9,"A15": 7.2,"A16": 5.4,"A17": 2.4,"A18": 1.1,"A19": 1,"A20": 6,"A21": 8,"A22": 7.2,"A23": 3.6,"A24": 4.8,"A25": 4.4,"A26": 3,"A27": 4,"A28": 9,"A29": 10,"A30": 10.8,"A31": 10.8,"A32": 7.2,"A33": 6.6,"A34": 4,"A35": 1,"A36": 4,"A37": 10,"A38": 6</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="109" t="str">
+      <c r="B16" s="105" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,H19:H56,)</f>
-        <v>"B1": 8.8,"B2": 6.6,"B3": 6.6,"B4": 6.6,"B5": 7,"B6": 8,"B7": 10,"B8": 7.2,"B9": 6,"B10": 6,"B11": 4.4,"B12": 5,"B13": 7,"B14": 9,"B15": 7.2,"B16": 5.4,"B17": 2.4,"B18": 1.1,"B19": 1,"B20": 6,"B21": 8,"B22": 7.2,"B23": 3.6,"B24": 4.8,"B25": 4.4,"B26": 3,"B27": 6,"B28": 9,"B29": 10,"B30": 10.8,"B31": 10.8,"B32": 7.2,"B33": 6.6,"B34": 4,"B35": 1,"B36": 4,"B37": 10,"B38": 6</v>
+        <v>"B1": 8.8,"B2": 6.6,"B3": 6.6,"B4": 6.6,"B5": 7,"B6": 8,"B7": 10,"B8": 7.2,"B9": 6,"B10": 6,"B11": 4.4,"B12": 5,"B13": 7,"B14": 9,"B15": 7.2,"B16": 5.4,"B17": 2.4,"B18": 1.1,"B19": 1,"B20": 6,"B21": 8,"B22": 7.2,"B23": 3.6,"B24": 4.8,"B25": 4.4,"B26": 3,"B27": 4,"B28": 9,"B29": 10,"B30": 10.8,"B31": 10.8,"B32": 7.2,"B33": 6.6,"B34": 4,"B35": 1,"B36": 4,"B37": 10,"B38": 6</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="109" t="str">
+      <c r="B17" s="105" t="str">
         <f>_xlfn.CONCAT("{",B15,",",B16,"}")</f>
-        <v>{"A1": 8.8,"A2": 6.6,"A3": 6.6,"A4": 6.6,"A5": 7,"A6": 8,"A7": 10,"A8": 7.2,"A9": 6,"A10": 6,"A11": 4.4,"A12": 5,"A13": 7,"A14": 9,"A15": 7.2,"A16": 5.4,"A17": 2.4,"A18": 1.1,"A19": 1,"A20": 6,"A21": 8,"A22": 7.2,"A23": 3.6,"A24": 4.8,"A25": 4.4,"A26": 3,"A27": 6,"A28": 9,"A29": 10,"A30": 10.8,"A31": 10.8,"A32": 7.2,"A33": 6.6,"A34": 4,"A35": 1,"A36": 4,"A37": 10,"A38": 6,"B1": 8.8,"B2": 6.6,"B3": 6.6,"B4": 6.6,"B5": 7,"B6": 8,"B7": 10,"B8": 7.2,"B9": 6,"B10": 6,"B11": 4.4,"B12": 5,"B13": 7,"B14": 9,"B15": 7.2,"B16": 5.4,"B17": 2.4,"B18": 1.1,"B19": 1,"B20": 6,"B21": 8,"B22": 7.2,"B23": 3.6,"B24": 4.8,"B25": 4.4,"B26": 3,"B27": 6,"B28": 9,"B29": 10,"B30": 10.8,"B31": 10.8,"B32": 7.2,"B33": 6.6,"B34": 4,"B35": 1,"B36": 4,"B37": 10,"B38": 6}</v>
+        <v>{"A1": 8.8,"A2": 6.6,"A3": 6.6,"A4": 6.6,"A5": 7,"A6": 8,"A7": 10,"A8": 7.2,"A9": 6,"A10": 6,"A11": 4.4,"A12": 5,"A13": 7,"A14": 9,"A15": 7.2,"A16": 5.4,"A17": 2.4,"A18": 1.1,"A19": 1,"A20": 6,"A21": 8,"A22": 7.2,"A23": 3.6,"A24": 4.8,"A25": 4.4,"A26": 3,"A27": 4,"A28": 9,"A29": 10,"A30": 10.8,"A31": 10.8,"A32": 7.2,"A33": 6.6,"A34": 4,"A35": 1,"A36": 4,"A37": 10,"A38": 6,"B1": 8.8,"B2": 6.6,"B3": 6.6,"B4": 6.6,"B5": 7,"B6": 8,"B7": 10,"B8": 7.2,"B9": 6,"B10": 6,"B11": 4.4,"B12": 5,"B13": 7,"B14": 9,"B15": 7.2,"B16": 5.4,"B17": 2.4,"B18": 1.1,"B19": 1,"B20": 6,"B21": 8,"B22": 7.2,"B23": 3.6,"B24": 4.8,"B25": 4.4,"B26": 3,"B27": 4,"B28": 9,"B29": 10,"B30": 10.8,"B31": 10.8,"B32": 7.2,"B33": 6.6,"B34": 4,"B35": 1,"B36": 4,"B37": 10,"B38": 6}</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="109"/>
+      <c r="B18" s="105"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <f>R9</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="E19" s="109" t="str">
+      <c r="E19" s="105" t="str">
         <f t="shared" ref="E19:E56" si="10">SUBSTITUTE(_xlfn.CONCAT("""A",$B19,""": ",$C19),",",".")</f>
         <v>"A1": 8.8</v>
       </c>
-      <c r="H19" s="109" t="str">
+      <c r="H19" s="105" t="str">
         <f t="shared" ref="H19:H56" si="11">SUBSTITUTE(_xlfn.CONCAT("""B",$B19,""": ",$C19),",",".")</f>
         <v>"B1": 8.8</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>2</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <f>Q9</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E20" s="109" t="str">
+      <c r="E20" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A2": 6.6</v>
       </c>
-      <c r="H20" s="109" t="str">
+      <c r="H20" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B2": 6.6</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <f>Q9</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E21" s="109" t="str">
+      <c r="E21" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A3": 6.6</v>
       </c>
-      <c r="H21" s="109" t="str">
+      <c r="H21" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B3": 6.6</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>4</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <f>O9</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E22" s="109" t="str">
+      <c r="E22" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A4": 6.6</v>
       </c>
-      <c r="H22" s="109" t="str">
+      <c r="H22" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B4": 6.6</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>5</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <f>N9</f>
         <v>7</v>
       </c>
-      <c r="E23" s="109" t="str">
+      <c r="E23" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A5": 7</v>
       </c>
-      <c r="G23" s="110"/>
-      <c r="H23" s="109" t="str">
+      <c r="G23" s="106"/>
+      <c r="H23" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B5": 7</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>6</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <f>M9</f>
         <v>8</v>
       </c>
-      <c r="E24" s="109" t="str">
+      <c r="E24" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A6": 8</v>
       </c>
-      <c r="H24" s="109" t="str">
+      <c r="H24" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B6": 8</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>7</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <f>L9</f>
         <v>10</v>
       </c>
-      <c r="E25" s="109" t="str">
+      <c r="E25" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A7": 10</v>
       </c>
-      <c r="H25" s="109" t="str">
+      <c r="H25" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B7": 10</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>8</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <f>R10</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="E26" s="109" t="str">
+      <c r="E26" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A8": 7.2</v>
       </c>
-      <c r="H26" s="109" t="str">
+      <c r="H26" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B8": 7.2</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>9</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <f>Q10</f>
         <v>6</v>
       </c>
-      <c r="E27" s="109" t="str">
+      <c r="E27" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A9": 6</v>
       </c>
-      <c r="H27" s="109" t="str">
+      <c r="H27" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B9": 6</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>10</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <f>P10</f>
         <v>6</v>
       </c>
-      <c r="E28" s="109" t="str">
+      <c r="E28" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A10": 6</v>
       </c>
-      <c r="H28" s="109" t="str">
+      <c r="H28" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B10": 6</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>11</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <f>O10</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="E29" s="109" t="str">
+      <c r="E29" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A11": 4.4</v>
       </c>
-      <c r="H29" s="109" t="str">
+      <c r="H29" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B11": 4.4</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="6">
+      <c r="B30" s="4">
         <v>12</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <f>N10</f>
         <v>5</v>
       </c>
-      <c r="E30" s="109" t="str">
+      <c r="E30" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A12": 5</v>
       </c>
-      <c r="H30" s="109" t="str">
+      <c r="H30" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B12": 5</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="6">
+      <c r="B31" s="4">
         <v>13</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <f>M10</f>
         <v>7</v>
       </c>
-      <c r="E31" s="109" t="str">
+      <c r="E31" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A13": 7</v>
       </c>
-      <c r="H31" s="109" t="str">
+      <c r="H31" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B13": 7</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="6">
+      <c r="B32" s="4">
         <v>14</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <f>L10</f>
         <v>9</v>
       </c>
-      <c r="E32" s="109" t="str">
+      <c r="E32" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A14": 9</v>
       </c>
-      <c r="H32" s="109" t="str">
+      <c r="H32" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B14": 9</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="6">
+      <c r="B33" s="4">
         <v>15</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <f>R11</f>
         <v>7.2</v>
       </c>
-      <c r="E33" s="109" t="str">
+      <c r="E33" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A15": 7.2</v>
       </c>
-      <c r="H33" s="109" t="str">
+      <c r="H33" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B15": 7.2</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="6">
+      <c r="B34" s="4">
         <v>16</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <f>Q11</f>
         <v>5.4</v>
       </c>
-      <c r="E34" s="109" t="str">
+      <c r="E34" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A16": 5.4</v>
       </c>
-      <c r="H34" s="109" t="str">
+      <c r="H34" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B16": 5.4</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="6">
+      <c r="B35" s="4">
         <v>17</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <f>P11</f>
         <v>2.4</v>
       </c>
-      <c r="E35" s="109" t="str">
+      <c r="E35" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A17": 2.4</v>
       </c>
-      <c r="H35" s="109" t="str">
+      <c r="H35" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B17": 2.4</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="6">
+      <c r="B36" s="4">
         <v>18</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <f>O11</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E36" s="109" t="str">
+      <c r="E36" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A18": 1.1</v>
       </c>
-      <c r="H36" s="109" t="str">
+      <c r="H36" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B18": 1.1</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="6">
+      <c r="B37" s="4">
         <v>19</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <f>N11</f>
         <v>1</v>
       </c>
-      <c r="E37" s="109" t="str">
+      <c r="E37" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A19": 1</v>
       </c>
-      <c r="H37" s="109" t="str">
+      <c r="H37" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B19": 1</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="6">
+      <c r="B38" s="4">
         <v>20</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <f>M11</f>
         <v>6</v>
       </c>
-      <c r="E38" s="109" t="str">
+      <c r="E38" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A20": 6</v>
       </c>
-      <c r="H38" s="109" t="str">
+      <c r="H38" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B20": 6</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="6">
+      <c r="B39" s="4">
         <v>21</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <f>L11</f>
         <v>8</v>
       </c>
-      <c r="E39" s="109" t="str">
+      <c r="E39" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A21": 8</v>
       </c>
-      <c r="H39" s="109" t="str">
+      <c r="H39" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B21": 8</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
+      <c r="B40" s="4">
         <v>22</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <f>R12</f>
         <v>7.2</v>
       </c>
-      <c r="E40" s="109" t="str">
+      <c r="E40" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A22": 7.2</v>
       </c>
-      <c r="H40" s="109" t="str">
+      <c r="H40" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B22": 7.2</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="6">
+      <c r="B41" s="4">
         <v>23</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="8">
         <f>Q12</f>
         <v>3.6</v>
       </c>
-      <c r="E41" s="109" t="str">
+      <c r="E41" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A23": 3.6</v>
       </c>
-      <c r="H41" s="109" t="str">
+      <c r="H41" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B23": 3.6</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="6">
+      <c r="B42" s="4">
         <v>24</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="8">
         <f>P12</f>
         <v>4.8</v>
       </c>
-      <c r="E42" s="109" t="str">
+      <c r="E42" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A24": 4.8</v>
       </c>
-      <c r="H42" s="109" t="str">
+      <c r="H42" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B24": 4.8</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="6">
+      <c r="B43" s="4">
         <v>25</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="8">
         <f>O12</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="E43" s="109" t="str">
+      <c r="E43" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A25": 4.4</v>
       </c>
-      <c r="H43" s="109" t="str">
+      <c r="H43" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B25": 4.4</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
+      <c r="B44" s="4">
         <v>26</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <f>N12</f>
         <v>3</v>
       </c>
-      <c r="E44" s="109" t="str">
+      <c r="E44" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A26": 3</v>
       </c>
-      <c r="H44" s="109" t="str">
+      <c r="H44" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B26": 3</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="6">
+      <c r="B45" s="4">
         <v>27</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <f>M12</f>
-        <v>6</v>
-      </c>
-      <c r="E45" s="109" t="str">
-        <f t="shared" si="10"/>
-        <v>"A27": 6</v>
-      </c>
-      <c r="H45" s="109" t="str">
-        <f t="shared" si="11"/>
-        <v>"B27": 6</v>
+        <v>4</v>
+      </c>
+      <c r="E45" s="105" t="str">
+        <f t="shared" si="10"/>
+        <v>"A27": 4</v>
+      </c>
+      <c r="H45" s="105" t="str">
+        <f t="shared" si="11"/>
+        <v>"B27": 4</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
+      <c r="B46" s="4">
         <v>28</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <f>L12</f>
         <v>9</v>
       </c>
-      <c r="E46" s="109" t="str">
+      <c r="E46" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A28": 9</v>
       </c>
-      <c r="H46" s="109" t="str">
+      <c r="H46" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B28": 9</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="6">
+      <c r="B47" s="4">
         <v>29</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <f>K12</f>
         <v>10</v>
       </c>
-      <c r="E47" s="109" t="str">
+      <c r="E47" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A29": 10</v>
       </c>
-      <c r="H47" s="109" t="str">
+      <c r="H47" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B29": 10</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="6">
+      <c r="B48" s="4">
         <v>30</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <f>R13</f>
         <v>10.8</v>
       </c>
-      <c r="E48" s="109" t="str">
+      <c r="E48" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A30": 10.8</v>
       </c>
-      <c r="H48" s="109" t="str">
+      <c r="H48" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B30": 10.8</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <v>31</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <f>Q13</f>
         <v>10.8</v>
       </c>
-      <c r="E49" s="109" t="str">
+      <c r="E49" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A31": 10.8</v>
       </c>
-      <c r="H49" s="109" t="str">
+      <c r="H49" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B31": 10.8</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="6">
+      <c r="B50" s="4">
         <v>32</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <f>P13</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="E50" s="109" t="str">
+      <c r="E50" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A32": 7.2</v>
       </c>
-      <c r="H50" s="109" t="str">
+      <c r="H50" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B32": 7.2</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="6">
+      <c r="B51" s="4">
         <v>33</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <f>O13</f>
         <v>6.6000000000000005</v>
       </c>
-      <c r="E51" s="109" t="str">
+      <c r="E51" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A33": 6.6</v>
       </c>
-      <c r="H51" s="109" t="str">
+      <c r="H51" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B33": 6.6</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="6">
+      <c r="B52" s="4">
         <v>34</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <f>N13</f>
         <v>4</v>
       </c>
-      <c r="E52" s="109" t="str">
+      <c r="E52" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A34": 4</v>
       </c>
-      <c r="H52" s="109" t="str">
+      <c r="H52" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B34": 4</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="6">
+      <c r="B53" s="4">
         <v>35</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="8">
         <f>M13</f>
         <v>1</v>
       </c>
-      <c r="E53" s="109" t="str">
+      <c r="E53" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A35": 1</v>
       </c>
-      <c r="H53" s="109" t="str">
+      <c r="H53" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B35": 1</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="6">
+      <c r="B54" s="4">
         <v>36</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="8">
         <f>L13</f>
         <v>4</v>
       </c>
-      <c r="E54" s="109" t="str">
+      <c r="E54" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A36": 4</v>
       </c>
-      <c r="H54" s="109" t="str">
+      <c r="H54" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B36": 4</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="6">
+      <c r="B55" s="4">
         <v>37</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="8">
         <f>K13</f>
         <v>10</v>
       </c>
-      <c r="E55" s="109" t="str">
+      <c r="E55" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A37": 10</v>
       </c>
-      <c r="H55" s="109" t="str">
+      <c r="H55" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B37": 10</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="6">
+      <c r="B56" s="4">
         <v>38</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="8">
         <f>K14</f>
         <v>6</v>
       </c>
-      <c r="E56" s="109" t="str">
+      <c r="E56" s="105" t="str">
         <f t="shared" si="10"/>
         <v>"A38": 6</v>
       </c>
-      <c r="H56" s="109" t="str">
+      <c r="H56" s="105" t="str">
         <f t="shared" si="11"/>
         <v>"B38": 6</v>
       </c>
@@ -2662,283 +2652,283 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5">
+      <c r="C7" s="74">
         <v>6</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="78">
-        <v>6</v>
-      </c>
-      <c r="D7" s="79">
+      <c r="D7" s="75">
         <f>Sheet1!N9*Sheet1!$M$1</f>
         <v>7</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="72">
         <v>8</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="72">
         <v>9</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="76">
         <v>0</v>
       </c>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="103" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="82" t="s">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D9" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="107" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="82" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="84" t="s">
+      <c r="E10" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F10" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G10" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="90" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="93" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="94" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="95" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="102" t="s">
+      <c r="E11" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="F11" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="G11" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="106" t="s">
+      <c r="H11" s="102" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="83" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C7EC8C-9119-4A40-85AF-00E113F751A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888111C-E11B-4A07-88F8-636C9C9DC321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" activeTab="1" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
     <sheet name="Keys" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Querty" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,9 +92,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>"</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -149,9 +146,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>\</t>
-  </si>
-  <si>
     <t>'</t>
   </si>
   <si>
@@ -174,6 +168,12 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>\"</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +208,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -686,15 +694,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,13 +1016,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1326,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B6691-7246-46A6-9F21-3516326982E4}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,7 +1476,7 @@
         <v>8.4</v>
       </c>
       <c r="S3" s="70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1518,7 +1531,7 @@
         <v>10.8</v>
       </c>
       <c r="S4" s="70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1579,7 +1592,7 @@
         <v>12.6</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1640,7 +1653,7 @@
         <v>14.4</v>
       </c>
       <c r="S6" s="70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1661,7 +1674,7 @@
       <c r="K7" s="81"/>
       <c r="L7" s="82"/>
       <c r="S7" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1669,668 +1682,671 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,D13:D50,)</f>
-        <v>"L1": 8,"L2": 7,"L3": 7,"L4": 5,"L5": 7,"L6": 8,"L7": 10,"L8": 8.4,"L9": 7.2,"L10": 6,"L11": 4,"L12": 5,"L13": 7,"L14": 8,"L15": 10.8,"L16": 5.4,"L17": 1.2,"L18": 1,"L19": 1,"L20": 6,"L21": 7,"L22": 12.6,"L23": 3.6,"L24": 3.6,"L25": 3,"L26": 3,"L27": 7,"L28": 9,"L29": 10,"L30": 14.4,"L31": 10.8,"L32": 7.2,"L33": 6,"L34": 5,"L35": 1,"L36": 3,"L37": 9,"L38": 6</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,D14:D51,)</f>
+        <v>"L1": 8,"L2": 7,"L3": 6,"L4": 5,"L5": 7,"L6": 8,"L7": 10,"L8": 8.4,"L9": 7.2,"L10": 6,"L11": 4,"L12": 5,"L13": 7,"L14": 8,"L15": 10.8,"L16": 5.4,"L17": 1.2,"L18": 1,"L19": 1,"L20": 6,"L21": 7,"L22": 12.6,"L23": 3.6,"L24": 3.6,"L25": 3,"L26": 3,"L27": 7,"L28": 9,"L29": 10,"L30": 14.4,"L31": 10.8,"L32": 7.2,"L33": 6,"L34": 5,"L35": 1,"L36": 3,"L37": 9,"L38": 6</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="50" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,G13:G50,)</f>
-        <v>"R1": 8,"R2": 7,"R3": 7,"R4": 5,"R5": 7,"R6": 8,"R7": 10,"R8": 8.4,"R9": 7.2,"R10": 6,"R11": 4,"R12": 5,"R13": 7,"R14": 8,"R15": 10.8,"R16": 5.4,"R17": 1.2,"R18": 1,"R19": 1,"R20": 6,"R21": 7,"R22": 12.6,"R23": 3.6,"R24": 3.6,"R25": 3,"R26": 3,"R27": 7,"R28": 9,"R29": 10,"R30": 14.4,"R31": 10.8,"R32": 7.2,"R33": 6,"R34": 5,"R35": 1,"R36": 3,"R37": 9,"R38": 6</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,G14:G51,)</f>
+        <v>"R1": 8,"R2": 7,"R3": 6,"R4": 5,"R5": 7,"R6": 8,"R7": 10,"R8": 8.4,"R9": 7.2,"R10": 6,"R11": 4,"R12": 5,"R13": 7,"R14": 8,"R15": 10.8,"R16": 5.4,"R17": 1.2,"R18": 1,"R19": 1,"R20": 6,"R21": 7,"R22": 12.6,"R23": 3.6,"R24": 3.6,"R25": 3,"R26": 3,"R27": 7,"R28": 9,"R29": 10,"R30": 14.4,"R31": 10.8,"R32": 7.2,"R33": 6,"R34": 5,"R35": 1,"R36": 3,"R37": 9,"R38": 6</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="str">
+      <c r="A11" s="50"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="str">
         <f>_xlfn.CONCAT("{",A9,",",A10,"}")</f>
-        <v>{"L1": 8,"L2": 7,"L3": 7,"L4": 5,"L5": 7,"L6": 8,"L7": 10,"L8": 8.4,"L9": 7.2,"L10": 6,"L11": 4,"L12": 5,"L13": 7,"L14": 8,"L15": 10.8,"L16": 5.4,"L17": 1.2,"L18": 1,"L19": 1,"L20": 6,"L21": 7,"L22": 12.6,"L23": 3.6,"L24": 3.6,"L25": 3,"L26": 3,"L27": 7,"L28": 9,"L29": 10,"L30": 14.4,"L31": 10.8,"L32": 7.2,"L33": 6,"L34": 5,"L35": 1,"L36": 3,"L37": 9,"L38": 6,"R1": 8,"R2": 7,"R3": 7,"R4": 5,"R5": 7,"R6": 8,"R7": 10,"R8": 8.4,"R9": 7.2,"R10": 6,"R11": 4,"R12": 5,"R13": 7,"R14": 8,"R15": 10.8,"R16": 5.4,"R17": 1.2,"R18": 1,"R19": 1,"R20": 6,"R21": 7,"R22": 12.6,"R23": 3.6,"R24": 3.6,"R25": 3,"R26": 3,"R27": 7,"R28": 9,"R29": 10,"R30": 14.4,"R31": 10.8,"R32": 7.2,"R33": 6,"R34": 5,"R35": 1,"R36": 3,"R37": 9,"R38": 6}</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+        <v>{"L1": 8,"L2": 7,"L3": 6,"L4": 5,"L5": 7,"L6": 8,"L7": 10,"L8": 8.4,"L9": 7.2,"L10": 6,"L11": 4,"L12": 5,"L13": 7,"L14": 8,"L15": 10.8,"L16": 5.4,"L17": 1.2,"L18": 1,"L19": 1,"L20": 6,"L21": 7,"L22": 12.6,"L23": 3.6,"L24": 3.6,"L25": 3,"L26": 3,"L27": 7,"L28": 9,"L29": 10,"L30": 14.4,"L31": 10.8,"L32": 7.2,"L33": 6,"L34": 5,"L35": 1,"L36": 3,"L37": 9,"L38": 6,"R1": 8,"R2": 7,"R3": 6,"R4": 5,"R5": 7,"R6": 8,"R7": 10,"R8": 8.4,"R9": 7.2,"R10": 6,"R11": 4,"R12": 5,"R13": 7,"R14": 8,"R15": 10.8,"R16": 5.4,"R17": 1.2,"R18": 1,"R19": 1,"R20": 6,"R21": 7,"R22": 12.6,"R23": 3.6,"R24": 3.6,"R25": 3,"R26": 3,"R27": 7,"R28": 9,"R29": 10,"R30": 14.4,"R31": 10.8,"R32": 7.2,"R33": 6,"R34": 5,"R35": 1,"R36": 3,"R37": 9,"R38": 6}</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="50"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B14" s="4">
         <f>Q2</f>
         <v>8</v>
       </c>
-      <c r="D13" s="79" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A13,""": ",$B13),",",".")</f>
+      <c r="D14" s="79" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A14,""": ",$B14),",",".")</f>
         <v>"L1": 8</v>
       </c>
-      <c r="G13" s="50" t="str">
-        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A13,""": ",$B13),",",".")</f>
+      <c r="G14" s="50" t="str">
+        <f>SUBSTITUTE(_xlfn.CONCAT("""R",$A14,""": ",$B14),",",".")</f>
         <v>"R1": 8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <f>P2</f>
-        <v>7</v>
-      </c>
-      <c r="D14" s="79" t="str">
-        <f t="shared" ref="D14:D50" si="0">SUBSTITUTE(_xlfn.CONCAT("""L",$A14,""": ",$B14),",",".")</f>
-        <v>"L2": 7</v>
-      </c>
-      <c r="G14" s="50" t="str">
-        <f t="shared" ref="G14:G50" si="1">SUBSTITUTE(_xlfn.CONCAT("""R",$A14,""": ",$B14),",",".")</f>
-        <v>"R2": 7</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4">
         <f>P2</f>
         <v>7</v>
       </c>
       <c r="D15" s="79" t="str">
-        <f t="shared" si="0"/>
-        <v>"L3": 7</v>
+        <f t="shared" ref="D15:D51" si="0">SUBSTITUTE(_xlfn.CONCAT("""L",$A15,""": ",$B15),",",".")</f>
+        <v>"L2": 7</v>
       </c>
       <c r="G15" s="50" t="str">
-        <f t="shared" si="1"/>
-        <v>"R3": 7</v>
+        <f t="shared" ref="G15:G51" si="1">SUBSTITUTE(_xlfn.CONCAT("""R",$A15,""": ",$B15),",",".")</f>
+        <v>"R2": 7</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4">
+        <f>O2</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="79" t="str">
+        <f t="shared" si="0"/>
+        <v>"L3": 6</v>
+      </c>
+      <c r="G16" s="50" t="str">
+        <f t="shared" si="1"/>
+        <v>"R3": 6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B17" s="4">
         <f>N2</f>
         <v>5</v>
       </c>
-      <c r="D16" s="79" t="str">
+      <c r="D17" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L4": 5</v>
       </c>
-      <c r="G16" s="50" t="str">
+      <c r="G17" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R4": 5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>5</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B18" s="4">
         <f>M2</f>
         <v>7</v>
       </c>
-      <c r="D17" s="79" t="str">
+      <c r="D18" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L5": 7</v>
       </c>
-      <c r="F17" s="51"/>
-      <c r="G17" s="50" t="str">
+      <c r="F18" s="51"/>
+      <c r="G18" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R5": 7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B19" s="4">
         <f>L2</f>
         <v>8</v>
       </c>
-      <c r="D18" s="79" t="str">
+      <c r="D19" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L6": 8</v>
       </c>
-      <c r="G18" s="50" t="str">
+      <c r="G19" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R6": 8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>7</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B20" s="4">
         <f>K2</f>
         <v>10</v>
       </c>
-      <c r="D19" s="79" t="str">
+      <c r="D20" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L7": 10</v>
       </c>
-      <c r="G19" s="50" t="str">
+      <c r="G20" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R7": 10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>8</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B21" s="4">
         <f>Q3</f>
         <v>8.4</v>
       </c>
-      <c r="D20" s="79" t="str">
+      <c r="D21" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L8": 8.4</v>
       </c>
-      <c r="G20" s="50" t="str">
+      <c r="G21" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R8": 8.4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <v>9</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4">
         <f>P3</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="D21" s="79" t="str">
+      <c r="D22" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L9": 7.2</v>
       </c>
-      <c r="G21" s="50" t="str">
+      <c r="G22" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R9": 7.2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>10</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B23" s="4">
         <f>O3</f>
         <v>6</v>
       </c>
-      <c r="D22" s="79" t="str">
+      <c r="D23" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L10": 6</v>
       </c>
-      <c r="G22" s="50" t="str">
+      <c r="G23" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R10": 6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>11</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="4">
         <f>N3</f>
         <v>4</v>
       </c>
-      <c r="D23" s="79" t="str">
+      <c r="D24" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L11": 4</v>
       </c>
-      <c r="G23" s="50" t="str">
+      <c r="G24" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R11": 4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>12</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B25" s="4">
         <f>M3</f>
         <v>5</v>
       </c>
-      <c r="D24" s="79" t="str">
+      <c r="D25" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L12": 5</v>
       </c>
-      <c r="G24" s="50" t="str">
+      <c r="G25" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R12": 5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>13</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="4">
         <f>L3</f>
         <v>7</v>
       </c>
-      <c r="D25" s="79" t="str">
+      <c r="D26" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L13": 7</v>
       </c>
-      <c r="G25" s="50" t="str">
+      <c r="G26" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R13": 7</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>14</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B27" s="4">
         <f>K3</f>
         <v>8</v>
       </c>
-      <c r="D26" s="79" t="str">
+      <c r="D27" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L14": 8</v>
       </c>
-      <c r="G26" s="50" t="str">
+      <c r="G27" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R14": 8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>15</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4">
         <f>Q4</f>
         <v>10.8</v>
       </c>
-      <c r="D27" s="79" t="str">
+      <c r="D28" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L15": 10.8</v>
       </c>
-      <c r="G27" s="50" t="str">
+      <c r="G28" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R15": 10.8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>16</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B29" s="4">
         <f>P4</f>
         <v>5.4</v>
       </c>
-      <c r="D28" s="79" t="str">
+      <c r="D29" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L16": 5.4</v>
       </c>
-      <c r="G28" s="50" t="str">
+      <c r="G29" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R16": 5.4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>17</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B30" s="4">
         <f>O4</f>
         <v>1.2</v>
       </c>
-      <c r="D29" s="79" t="str">
+      <c r="D30" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L17": 1.2</v>
       </c>
-      <c r="G29" s="50" t="str">
+      <c r="G30" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R17": 1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>18</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="4">
         <f>N4</f>
         <v>1</v>
       </c>
-      <c r="D30" s="79" t="str">
+      <c r="D31" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L18": 1</v>
       </c>
-      <c r="G30" s="50" t="str">
+      <c r="G31" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R18": 1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>19</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B32" s="4">
         <f>M4</f>
         <v>1</v>
       </c>
-      <c r="D31" s="79" t="str">
+      <c r="D32" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L19": 1</v>
       </c>
-      <c r="G31" s="50" t="str">
+      <c r="G32" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R19": 1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>20</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B33" s="4">
         <f>L4</f>
         <v>6</v>
       </c>
-      <c r="D32" s="79" t="str">
+      <c r="D33" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L20": 6</v>
       </c>
-      <c r="G32" s="50" t="str">
+      <c r="G33" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R20": 6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>21</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B34" s="4">
         <f>K4</f>
         <v>7</v>
       </c>
-      <c r="D33" s="79" t="str">
+      <c r="D34" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L21": 7</v>
       </c>
-      <c r="G33" s="50" t="str">
+      <c r="G34" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R21": 7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>22</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B35" s="4">
         <f>Q5</f>
         <v>12.6</v>
       </c>
-      <c r="D34" s="79" t="str">
+      <c r="D35" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L22": 12.6</v>
       </c>
-      <c r="G34" s="50" t="str">
+      <c r="G35" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R22": 12.6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>23</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B36" s="4">
         <f>P5</f>
         <v>3.6</v>
       </c>
-      <c r="D35" s="79" t="str">
+      <c r="D36" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L23": 3.6</v>
       </c>
-      <c r="G35" s="50" t="str">
+      <c r="G36" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R23": 3.6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>24</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B37" s="4">
         <f>O5</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="D36" s="79" t="str">
+      <c r="D37" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L24": 3.6</v>
       </c>
-      <c r="G36" s="50" t="str">
+      <c r="G37" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R24": 3.6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>25</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B38" s="4">
         <f>N5</f>
         <v>3</v>
       </c>
-      <c r="D37" s="79" t="str">
+      <c r="D38" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L25": 3</v>
       </c>
-      <c r="G37" s="50" t="str">
+      <c r="G38" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R25": 3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>26</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B39" s="4">
         <f>M5</f>
         <v>3</v>
       </c>
-      <c r="D38" s="79" t="str">
+      <c r="D39" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L26": 3</v>
       </c>
-      <c r="G38" s="50" t="str">
+      <c r="G39" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R26": 3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
         <v>27</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B40" s="4">
         <f>L5</f>
         <v>7</v>
       </c>
-      <c r="D39" s="79" t="str">
+      <c r="D40" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L27": 7</v>
       </c>
-      <c r="G39" s="50" t="str">
+      <c r="G40" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R27": 7</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
         <v>28</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B41" s="4">
         <f>K5</f>
         <v>9</v>
       </c>
-      <c r="D40" s="79" t="str">
+      <c r="D41" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L28": 9</v>
       </c>
-      <c r="G40" s="50" t="str">
+      <c r="G41" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R28": 9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>29</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B42" s="4">
         <f>J5</f>
         <v>10</v>
       </c>
-      <c r="D41" s="79" t="str">
+      <c r="D42" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L29": 10</v>
       </c>
-      <c r="G41" s="50" t="str">
+      <c r="G42" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R29": 10</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>30</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B43" s="4">
         <f>Q6</f>
         <v>14.4</v>
       </c>
-      <c r="D42" s="79" t="str">
+      <c r="D43" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L30": 14.4</v>
       </c>
-      <c r="G42" s="50" t="str">
+      <c r="G43" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R30": 14.4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>31</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B44" s="4">
         <f>P6</f>
         <v>10.8</v>
       </c>
-      <c r="D43" s="79" t="str">
+      <c r="D44" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L31": 10.8</v>
       </c>
-      <c r="G43" s="50" t="str">
+      <c r="G44" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R31": 10.8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>32</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B45" s="4">
         <f>O6</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="D44" s="79" t="str">
+      <c r="D45" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L32": 7.2</v>
       </c>
-      <c r="G44" s="50" t="str">
+      <c r="G45" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R32": 7.2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>33</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B46" s="4">
         <f>N6</f>
         <v>6</v>
       </c>
-      <c r="D45" s="79" t="str">
+      <c r="D46" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L33": 6</v>
       </c>
-      <c r="G45" s="50" t="str">
+      <c r="G46" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R33": 6</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
         <v>34</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B47" s="4">
         <f>M6</f>
         <v>5</v>
       </c>
-      <c r="D46" s="79" t="str">
+      <c r="D47" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L34": 5</v>
       </c>
-      <c r="G46" s="50" t="str">
+      <c r="G47" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R34": 5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>35</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B48" s="4">
         <f>L6</f>
         <v>1</v>
       </c>
-      <c r="D47" s="79" t="str">
+      <c r="D48" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L35": 1</v>
       </c>
-      <c r="G47" s="50" t="str">
+      <c r="G48" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R35": 1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>36</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B49" s="4">
         <f>K6</f>
         <v>3</v>
       </c>
-      <c r="D48" s="79" t="str">
+      <c r="D49" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L36": 3</v>
       </c>
-      <c r="G48" s="50" t="str">
+      <c r="G49" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R36": 3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>37</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B50" s="4">
         <f>J6</f>
         <v>9</v>
       </c>
-      <c r="D49" s="79" t="str">
+      <c r="D50" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L37": 9</v>
       </c>
-      <c r="G49" s="50" t="str">
+      <c r="G50" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R37": 9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>38</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B51" s="4">
         <f>J7</f>
         <v>6</v>
       </c>
-      <c r="D50" s="79" t="str">
+      <c r="D51" s="79" t="str">
         <f t="shared" si="0"/>
         <v>"L38": 6</v>
       </c>
-      <c r="G50" s="50" t="str">
+      <c r="G51" s="50" t="str">
         <f t="shared" si="1"/>
         <v>"R38": 6</v>
       </c>
@@ -2351,7 +2367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224431CD-CF00-47DD-8ACA-64FF62A3AD19}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -2383,11 +2399,11 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I1"/>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" s="95">
         <v>7</v>
@@ -2644,10 +2660,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2718,30 +2734,30 @@
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
       <c r="K2" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="95" t="s">
-        <v>20</v>
-      </c>
       <c r="M2" s="100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N2" s="96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O2" s="97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="97" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
+      <c r="A3" s="106" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
@@ -2763,22 +2779,22 @@
       <c r="J3" s="27"/>
       <c r="K3" s="95"/>
       <c r="L3" s="95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="100" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="96" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="97" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="98" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,19 +2819,19 @@
       <c r="J4" s="99"/>
       <c r="K4" s="99"/>
       <c r="L4" s="95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" s="96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O4" s="97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="98"/>
     </row>
@@ -2832,16 +2848,16 @@
       <c r="K5" s="104"/>
       <c r="L5" s="104"/>
       <c r="M5" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="96" t="s">
+      <c r="O5" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="97" t="s">
+      <c r="P5" s="98" t="s">
         <v>35</v>
-      </c>
-      <c r="P5" s="98" t="s">
-        <v>36</v>
       </c>
       <c r="Q5" s="98"/>
     </row>
@@ -2952,7 +2968,7 @@
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
-        <v>"14": """</v>
+        <v>"14": "\""</v>
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
@@ -2982,7 +2998,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": "\"</v>
+        <v>"15": "\\"</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -3170,10 +3186,6 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="G13" t="str">
-        <f>_xlfn.CONCAT("""",Keys!G6,""": ", """",G6,"""")</f>
-        <v>"": ""</v>
-      </c>
       <c r="H13" t="str">
         <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
         <v>"38": ""</v>
@@ -3183,9 +3195,30 @@
         <v>"38": ""</v>
       </c>
     </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "","15": "\\","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": "","34": "(","33": ")","32": "[","31": "]","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
+        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "","15": "\\","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": "","34": "(","33": ")","32": "[","31": "]","30": "","38": ""}}</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{082F101F-1916-44E9-91C5-34C26DDAA9A5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888111C-E11B-4A07-88F8-636C9C9DC321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA9415-E326-43D0-9AD8-BCD5A5B425DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" activeTab="2" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B6691-7246-46A6-9F21-3516326982E4}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2662,15 +2662,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,12 +2840,12 @@
       <c r="C5" s="55"/>
       <c r="D5" s="54"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="H5" s="3"/>
       <c r="J5" s="99"/>
       <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
+      <c r="L5" s="102"/>
       <c r="M5" s="101" t="s">
         <v>32</v>
       </c>
@@ -2867,12 +2866,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="3"/>
       <c r="J6" s="99"/>
       <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
+      <c r="L6" s="103"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -3214,6 +3213,11 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{082F101F-1916-44E9-91C5-34C26DDAA9A5}"/>

--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA9415-E326-43D0-9AD8-BCD5A5B425DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98587B43-D3B1-429F-AFBC-400D11B51FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" activeTab="2" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -47,6 +47,9 @@
     <t>b</t>
   </si>
   <si>
+    <t>`</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -147,6 +150,9 @@
   </si>
   <si>
     <t>'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>1-2: initial position</t>
@@ -703,7 +709,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,6 +1023,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1476,7 +1485,7 @@
         <v>8.4</v>
       </c>
       <c r="S3" s="70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1531,7 +1540,7 @@
         <v>10.8</v>
       </c>
       <c r="S4" s="70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1592,7 +1601,7 @@
         <v>12.6</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1653,7 +1662,7 @@
         <v>14.4</v>
       </c>
       <c r="S6" s="70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1674,7 +1683,7 @@
       <c r="K7" s="81"/>
       <c r="L7" s="82"/>
       <c r="S7" s="70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2399,11 +2408,11 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1"/>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K1" s="95">
         <v>7</v>
@@ -2663,7 +2672,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2689,7 +2698,7 @@
       <c r="F1" s="52">
         <v>5</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
       <c r="K1" s="95"/>
@@ -2709,106 +2718,108 @@
         <v>0</v>
       </c>
       <c r="Q1" s="96" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="55"/>
       <c r="B2" s="55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="52" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
       <c r="K2" s="95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" s="95" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" s="100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="96" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="97" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="106" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
       <c r="K3" s="95"/>
       <c r="L3" s="95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="100" t="s">
         <v>1</v>
       </c>
       <c r="N3" s="96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O3" s="97" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P3" s="98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="77" t="s">
         <v>3</v>
@@ -2818,19 +2829,19 @@
       <c r="J4" s="99"/>
       <c r="K4" s="99"/>
       <c r="L4" s="95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" s="96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P4" s="98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="98"/>
     </row>
@@ -2845,18 +2856,20 @@
       <c r="H5" s="3"/>
       <c r="J5" s="99"/>
       <c r="K5" s="104"/>
-      <c r="L5" s="102"/>
+      <c r="L5" s="107" t="s">
+        <v>39</v>
+      </c>
       <c r="M5" s="101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" s="96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P5" s="98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="98"/>
     </row>
@@ -2963,7 +2976,7 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": ""</v>
+        <v>"14": "`"</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
@@ -3161,7 +3174,7 @@
       </c>
       <c r="L12" t="str">
         <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
-        <v>"35": ""</v>
+        <v>"35": " "</v>
       </c>
       <c r="M12" t="str">
         <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
@@ -3197,19 +3210,19 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "","15": "\\","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "`","15": "\\","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": "","34": "(","33": ")","32": "[","31": "]","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "[","31": "]","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
-        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "","15": "\\","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": "","34": "(","33": ")","32": "[","31": "]","30": "","38": ""}}</v>
+        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "`","15": "\\","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "[","31": "]","30": "","38": ""}}</v>
       </c>
     </row>
   </sheetData>

--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98587B43-D3B1-429F-AFBC-400D11B51FF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAB1A3E-F545-40C8-ABE0-53486B55C518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" activeTab="2" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B6691-7246-46A6-9F21-3516326982E4}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -2671,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAB1A3E-F545-40C8-ABE0-53486B55C518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F9663F-E01A-4C97-88B6-B3A734236A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" activeTab="2" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,14 +214,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,16 +692,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,20 +1013,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1350,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B6691-7246-46A6-9F21-3516326982E4}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2377,7 +2364,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2671,8 +2658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2738,8 +2725,8 @@
       <c r="F2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="52" t="s">
-        <v>4</v>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
@@ -2766,8 +2753,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
-        <v>47</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -2849,14 +2836,18 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="55"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
       <c r="H5" s="3"/>
       <c r="J5" s="99"/>
       <c r="K5" s="104"/>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="106" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="101" t="s">
@@ -2865,12 +2856,8 @@
       <c r="N5" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="98" t="s">
-        <v>36</v>
-      </c>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98"/>
       <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,7 +2963,7 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "`"</v>
+        <v>"14": "\\"</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
@@ -3010,7 +2997,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": "\\"</v>
+        <v>"15": "`"</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -3146,11 +3133,11 @@
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": ""</v>
+        <v>"33": "["</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": ""</v>
+        <v>"34": "]"</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -3186,11 +3173,11 @@
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": "["</v>
+        <v>"32": ""</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": "]"</v>
+        <v>"31": ""</v>
       </c>
       <c r="Q12" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
@@ -3210,19 +3197,19 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "`","15": "\\","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "`","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "[","31": "]","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
-        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "`","15": "\\","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "[","31": "]","30": "","38": ""}}</v>
+        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "`","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
   </sheetData>
@@ -3231,11 +3218,8 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{082F101F-1916-44E9-91C5-34C26DDAA9A5}"/>
-  </hyperlinks>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F9663F-E01A-4C97-88B6-B3A734236A79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE0F64-319F-4CB6-BC8A-03E4CF887E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" activeTab="2" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="31332" yWindow="4152" windowWidth="22536" windowHeight="13176" activeTab="3" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
     <sheet name="Keys" sheetId="2" r:id="rId2"/>
     <sheet name="Querty" sheetId="3" r:id="rId3"/>
+    <sheet name="Collemak" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -700,7 +701,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1014,6 +1015,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2658,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3222,4 +3229,573 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95">
+        <v>6</v>
+      </c>
+      <c r="M1" s="100">
+        <v>7</v>
+      </c>
+      <c r="N1" s="96">
+        <v>8</v>
+      </c>
+      <c r="O1" s="96">
+        <v>9</v>
+      </c>
+      <c r="P1" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="98"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": "`"</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "["</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "f"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "p"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "-"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "l"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "y"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "]"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "s"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "="</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "\\"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": ""</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "`","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "-","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "=","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "[","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "]","21": "\\","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
+        <v>{left: {"1": "`","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "-","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "=","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "[","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "]","21": "\\","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DAB1A3E-F545-40C8-ABE0-53486B55C518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE0F64-319F-4CB6-BC8A-03E4CF887E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="612" yWindow="-108" windowWidth="30216" windowHeight="17496" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="31332" yWindow="4152" windowWidth="22536" windowHeight="13176" activeTab="3" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
     <sheet name="Keys" sheetId="2" r:id="rId2"/>
     <sheet name="Querty" sheetId="3" r:id="rId3"/>
+    <sheet name="Collemak" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -189,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,14 +215,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,16 +693,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1022,20 +1014,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1350,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463B6691-7246-46A6-9F21-3516326982E4}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2377,7 +2371,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L5" sqref="L5:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2672,7 +2666,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2738,8 +2732,8 @@
       <c r="F2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="52" t="s">
-        <v>4</v>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
@@ -2766,8 +2760,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="106" t="s">
-        <v>47</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -2849,14 +2843,18 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="55"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
       <c r="H5" s="3"/>
       <c r="J5" s="99"/>
       <c r="K5" s="104"/>
-      <c r="L5" s="107" t="s">
+      <c r="L5" s="106" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="101" t="s">
@@ -2865,12 +2863,8 @@
       <c r="N5" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="98" t="s">
-        <v>36</v>
-      </c>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98"/>
       <c r="Q5" s="98"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,7 +2970,7 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "`"</v>
+        <v>"14": "\\"</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
@@ -3010,7 +3004,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": "\\"</v>
+        <v>"15": "`"</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -3146,11 +3140,11 @@
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": ""</v>
+        <v>"33": "["</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": ""</v>
+        <v>"34": "]"</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -3186,11 +3180,11 @@
       </c>
       <c r="O12" t="str">
         <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
-        <v>"32": "["</v>
+        <v>"32": ""</v>
       </c>
       <c r="P12" t="str">
         <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
-        <v>"31": "]"</v>
+        <v>"31": ""</v>
       </c>
       <c r="Q12" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
@@ -3210,19 +3204,19 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "`","15": "\\","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "`","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "[","31": "]","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
-        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "`","15": "\\","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "[","31": "]","30": "","38": ""}}</v>
+        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "`","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
   </sheetData>
@@ -3231,11 +3225,577 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{082F101F-1916-44E9-91C5-34C26DDAA9A5}"/>
-  </hyperlinks>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95">
+        <v>6</v>
+      </c>
+      <c r="M1" s="100">
+        <v>7</v>
+      </c>
+      <c r="N1" s="96">
+        <v>8</v>
+      </c>
+      <c r="O1" s="96">
+        <v>9</v>
+      </c>
+      <c r="P1" s="96">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="96" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="98"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98"/>
+      <c r="Q5" s="98"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": "`"</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "["</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "f"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "p"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "-"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "l"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "y"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "]"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "s"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": "="</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "\\"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": ""</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": ""</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "`","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "-","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "=","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "[","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "]","21": "\\","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
+        <v>{left: {"1": "`","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "-","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "=","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "[","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "]","21": "\\","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE0F64-319F-4CB6-BC8A-03E4CF887E31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B91569-A5C9-4F2E-BB6C-9082158647B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31332" yWindow="4152" windowWidth="22536" windowHeight="13176" activeTab="3" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="31332" yWindow="4152" windowWidth="22536" windowHeight="13176" activeTab="8" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
     <sheet name="Keys" sheetId="2" r:id="rId2"/>
     <sheet name="Querty" sheetId="3" r:id="rId3"/>
     <sheet name="Collemak" sheetId="4" r:id="rId4"/>
+    <sheet name="Mtgap1" sheetId="5" r:id="rId5"/>
+    <sheet name="Mtgap2" sheetId="8" r:id="rId6"/>
+    <sheet name="Breakl15" sheetId="6" r:id="rId7"/>
+    <sheet name="Dvorak" sheetId="9" r:id="rId8"/>
+    <sheet name="Workman" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="53">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -182,6 +187,18 @@
   <si>
     <t>\"</t>
   </si>
+  <si>
+    <t>https://mathematicalmulticore.wordpress.com/the-keyboard-layout-project/</t>
+  </si>
+  <si>
+    <t>https://configure.ergodox-ez.com/ergodox-ez/layouts/BNpaO/latest/0</t>
+  </si>
+  <si>
+    <t>https://mathematicalmulticore.wordpress.com/2010/06/21/mtgaps-keyboard-layout-2-0/</t>
+  </si>
+  <si>
+    <t>https://colemak.com/</t>
+  </si>
 </sst>
 </file>
 
@@ -190,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +232,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -693,15 +718,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,6 +958,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,13 +1052,27 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="25" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1602,16 +1645,16 @@
       <c r="A6" s="68">
         <v>9</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="94">
         <v>3</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="92">
         <v>1</v>
       </c>
       <c r="D6" s="69">
         <v>5</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="95">
         <v>6</v>
       </c>
       <c r="F6" s="46">
@@ -1627,11 +1670,11 @@
         <f>A6*$C$1</f>
         <v>9</v>
       </c>
-      <c r="K6" s="84">
+      <c r="K6" s="85">
         <f>B6*$C$1</f>
         <v>3</v>
       </c>
-      <c r="L6" s="85">
+      <c r="L6" s="86">
         <f>C6*$C$1</f>
         <v>1</v>
       </c>
@@ -1639,7 +1682,7 @@
         <f>D6*$C$1</f>
         <v>5</v>
       </c>
-      <c r="N6" s="86">
+      <c r="N6" s="87">
         <f>E6*$E$1</f>
         <v>6</v>
       </c>
@@ -1660,28 +1703,28 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="92">
+      <c r="A7" s="93">
         <v>6</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="90"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="91"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
-      <c r="J7" s="83">
+      <c r="J7" s="84">
         <f>A7*$C$1</f>
         <v>6</v>
       </c>
-      <c r="K7" s="81"/>
-      <c r="L7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="83"/>
       <c r="S7" s="70" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="J8" s="78"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="str">
@@ -1715,7 +1758,7 @@
         <f>Q2</f>
         <v>8</v>
       </c>
-      <c r="D14" s="79" t="str">
+      <c r="D14" s="80" t="str">
         <f>SUBSTITUTE(_xlfn.CONCAT("""L",$A14,""": ",$B14),",",".")</f>
         <v>"L1": 8</v>
       </c>
@@ -1732,7 +1775,7 @@
         <f>P2</f>
         <v>7</v>
       </c>
-      <c r="D15" s="79" t="str">
+      <c r="D15" s="80" t="str">
         <f t="shared" ref="D15:D51" si="0">SUBSTITUTE(_xlfn.CONCAT("""L",$A15,""": ",$B15),",",".")</f>
         <v>"L2": 7</v>
       </c>
@@ -1749,7 +1792,7 @@
         <f>O2</f>
         <v>6</v>
       </c>
-      <c r="D16" s="79" t="str">
+      <c r="D16" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L3": 6</v>
       </c>
@@ -1766,7 +1809,7 @@
         <f>N2</f>
         <v>5</v>
       </c>
-      <c r="D17" s="79" t="str">
+      <c r="D17" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L4": 5</v>
       </c>
@@ -1783,7 +1826,7 @@
         <f>M2</f>
         <v>7</v>
       </c>
-      <c r="D18" s="79" t="str">
+      <c r="D18" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L5": 7</v>
       </c>
@@ -1801,7 +1844,7 @@
         <f>L2</f>
         <v>8</v>
       </c>
-      <c r="D19" s="79" t="str">
+      <c r="D19" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L6": 8</v>
       </c>
@@ -1818,7 +1861,7 @@
         <f>K2</f>
         <v>10</v>
       </c>
-      <c r="D20" s="79" t="str">
+      <c r="D20" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L7": 10</v>
       </c>
@@ -1835,7 +1878,7 @@
         <f>Q3</f>
         <v>8.4</v>
       </c>
-      <c r="D21" s="79" t="str">
+      <c r="D21" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L8": 8.4</v>
       </c>
@@ -1852,7 +1895,7 @@
         <f>P3</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="D22" s="79" t="str">
+      <c r="D22" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L9": 7.2</v>
       </c>
@@ -1869,7 +1912,7 @@
         <f>O3</f>
         <v>6</v>
       </c>
-      <c r="D23" s="79" t="str">
+      <c r="D23" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L10": 6</v>
       </c>
@@ -1886,7 +1929,7 @@
         <f>N3</f>
         <v>4</v>
       </c>
-      <c r="D24" s="79" t="str">
+      <c r="D24" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L11": 4</v>
       </c>
@@ -1903,7 +1946,7 @@
         <f>M3</f>
         <v>5</v>
       </c>
-      <c r="D25" s="79" t="str">
+      <c r="D25" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L12": 5</v>
       </c>
@@ -1920,7 +1963,7 @@
         <f>L3</f>
         <v>7</v>
       </c>
-      <c r="D26" s="79" t="str">
+      <c r="D26" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L13": 7</v>
       </c>
@@ -1937,7 +1980,7 @@
         <f>K3</f>
         <v>8</v>
       </c>
-      <c r="D27" s="79" t="str">
+      <c r="D27" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L14": 8</v>
       </c>
@@ -1954,7 +1997,7 @@
         <f>Q4</f>
         <v>10.8</v>
       </c>
-      <c r="D28" s="79" t="str">
+      <c r="D28" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L15": 10.8</v>
       </c>
@@ -1971,7 +2014,7 @@
         <f>P4</f>
         <v>5.4</v>
       </c>
-      <c r="D29" s="79" t="str">
+      <c r="D29" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L16": 5.4</v>
       </c>
@@ -1988,7 +2031,7 @@
         <f>O4</f>
         <v>1.2</v>
       </c>
-      <c r="D30" s="79" t="str">
+      <c r="D30" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L17": 1.2</v>
       </c>
@@ -2005,7 +2048,7 @@
         <f>N4</f>
         <v>1</v>
       </c>
-      <c r="D31" s="79" t="str">
+      <c r="D31" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L18": 1</v>
       </c>
@@ -2022,7 +2065,7 @@
         <f>M4</f>
         <v>1</v>
       </c>
-      <c r="D32" s="79" t="str">
+      <c r="D32" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L19": 1</v>
       </c>
@@ -2039,7 +2082,7 @@
         <f>L4</f>
         <v>6</v>
       </c>
-      <c r="D33" s="79" t="str">
+      <c r="D33" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L20": 6</v>
       </c>
@@ -2056,7 +2099,7 @@
         <f>K4</f>
         <v>7</v>
       </c>
-      <c r="D34" s="79" t="str">
+      <c r="D34" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L21": 7</v>
       </c>
@@ -2073,7 +2116,7 @@
         <f>Q5</f>
         <v>12.6</v>
       </c>
-      <c r="D35" s="79" t="str">
+      <c r="D35" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L22": 12.6</v>
       </c>
@@ -2090,7 +2133,7 @@
         <f>P5</f>
         <v>3.6</v>
       </c>
-      <c r="D36" s="79" t="str">
+      <c r="D36" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L23": 3.6</v>
       </c>
@@ -2107,7 +2150,7 @@
         <f>O5</f>
         <v>3.5999999999999996</v>
       </c>
-      <c r="D37" s="79" t="str">
+      <c r="D37" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L24": 3.6</v>
       </c>
@@ -2124,7 +2167,7 @@
         <f>N5</f>
         <v>3</v>
       </c>
-      <c r="D38" s="79" t="str">
+      <c r="D38" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L25": 3</v>
       </c>
@@ -2141,7 +2184,7 @@
         <f>M5</f>
         <v>3</v>
       </c>
-      <c r="D39" s="79" t="str">
+      <c r="D39" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L26": 3</v>
       </c>
@@ -2158,7 +2201,7 @@
         <f>L5</f>
         <v>7</v>
       </c>
-      <c r="D40" s="79" t="str">
+      <c r="D40" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L27": 7</v>
       </c>
@@ -2175,7 +2218,7 @@
         <f>K5</f>
         <v>9</v>
       </c>
-      <c r="D41" s="79" t="str">
+      <c r="D41" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L28": 9</v>
       </c>
@@ -2192,7 +2235,7 @@
         <f>J5</f>
         <v>10</v>
       </c>
-      <c r="D42" s="79" t="str">
+      <c r="D42" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L29": 10</v>
       </c>
@@ -2209,7 +2252,7 @@
         <f>Q6</f>
         <v>14.4</v>
       </c>
-      <c r="D43" s="79" t="str">
+      <c r="D43" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L30": 14.4</v>
       </c>
@@ -2226,7 +2269,7 @@
         <f>P6</f>
         <v>10.8</v>
       </c>
-      <c r="D44" s="79" t="str">
+      <c r="D44" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L31": 10.8</v>
       </c>
@@ -2243,7 +2286,7 @@
         <f>O6</f>
         <v>7.1999999999999993</v>
       </c>
-      <c r="D45" s="79" t="str">
+      <c r="D45" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L32": 7.2</v>
       </c>
@@ -2260,7 +2303,7 @@
         <f>N6</f>
         <v>6</v>
       </c>
-      <c r="D46" s="79" t="str">
+      <c r="D46" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L33": 6</v>
       </c>
@@ -2277,7 +2320,7 @@
         <f>M6</f>
         <v>5</v>
       </c>
-      <c r="D47" s="79" t="str">
+      <c r="D47" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L34": 5</v>
       </c>
@@ -2294,7 +2337,7 @@
         <f>L6</f>
         <v>1</v>
       </c>
-      <c r="D48" s="79" t="str">
+      <c r="D48" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L35": 1</v>
       </c>
@@ -2311,7 +2354,7 @@
         <f>K6</f>
         <v>3</v>
       </c>
-      <c r="D49" s="79" t="str">
+      <c r="D49" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L36": 3</v>
       </c>
@@ -2328,7 +2371,7 @@
         <f>J6</f>
         <v>9</v>
       </c>
-      <c r="D50" s="79" t="str">
+      <c r="D50" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L37": 9</v>
       </c>
@@ -2345,7 +2388,7 @@
         <f>J7</f>
         <v>6</v>
       </c>
-      <c r="D51" s="79" t="str">
+      <c r="D51" s="80" t="str">
         <f t="shared" si="0"/>
         <v>"L38": 6</v>
       </c>
@@ -2376,7 +2419,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="80"/>
+    <col min="1" max="16384" width="4.77734375" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,25 +2451,25 @@
       <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="95">
+      <c r="K1" s="96">
         <v>7</v>
       </c>
-      <c r="L1" s="95">
+      <c r="L1" s="96">
         <v>6</v>
       </c>
-      <c r="M1" s="100">
+      <c r="M1" s="101">
         <v>5</v>
       </c>
-      <c r="N1" s="96">
+      <c r="N1" s="97">
         <v>4</v>
       </c>
-      <c r="O1" s="96">
+      <c r="O1" s="97">
         <v>3</v>
       </c>
-      <c r="P1" s="96">
+      <c r="P1" s="97">
         <v>2</v>
       </c>
-      <c r="Q1" s="96">
+      <c r="Q1" s="97">
         <v>1</v>
       </c>
     </row>
@@ -2455,25 +2498,25 @@
       <c r="H2" s="2"/>
       <c r="I2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="95">
+      <c r="K2" s="96">
         <v>14</v>
       </c>
-      <c r="L2" s="95">
+      <c r="L2" s="96">
         <v>13</v>
       </c>
-      <c r="M2" s="100">
+      <c r="M2" s="101">
         <v>12</v>
       </c>
-      <c r="N2" s="96">
+      <c r="N2" s="97">
         <v>11</v>
       </c>
-      <c r="O2" s="97">
+      <c r="O2" s="98">
         <v>10</v>
       </c>
-      <c r="P2" s="97">
+      <c r="P2" s="98">
         <v>9</v>
       </c>
-      <c r="Q2" s="97">
+      <c r="Q2" s="98">
         <v>8</v>
       </c>
     </row>
@@ -2502,25 +2545,25 @@
       <c r="H3" s="2"/>
       <c r="I3"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="95">
+      <c r="K3" s="96">
         <v>21</v>
       </c>
-      <c r="L3" s="95">
+      <c r="L3" s="96">
         <v>20</v>
       </c>
-      <c r="M3" s="100">
+      <c r="M3" s="101">
         <v>19</v>
       </c>
-      <c r="N3" s="96">
+      <c r="N3" s="97">
         <v>18</v>
       </c>
-      <c r="O3" s="97">
+      <c r="O3" s="98">
         <v>17</v>
       </c>
-      <c r="P3" s="98">
+      <c r="P3" s="99">
         <v>16</v>
       </c>
-      <c r="Q3" s="98">
+      <c r="Q3" s="99">
         <v>15</v>
       </c>
     </row>
@@ -2550,28 +2593,28 @@
         <v>29</v>
       </c>
       <c r="I4"/>
-      <c r="J4" s="99">
+      <c r="J4" s="100">
         <v>29</v>
       </c>
-      <c r="K4" s="99">
+      <c r="K4" s="100">
         <v>28</v>
       </c>
-      <c r="L4" s="95">
+      <c r="L4" s="96">
         <v>27</v>
       </c>
-      <c r="M4" s="100">
+      <c r="M4" s="101">
         <v>26</v>
       </c>
-      <c r="N4" s="96">
+      <c r="N4" s="97">
         <v>25</v>
       </c>
-      <c r="O4" s="97">
+      <c r="O4" s="98">
         <v>24</v>
       </c>
-      <c r="P4" s="98">
+      <c r="P4" s="99">
         <v>23</v>
       </c>
-      <c r="Q4" s="98">
+      <c r="Q4" s="99">
         <v>22</v>
       </c>
     </row>
@@ -2591,38 +2634,38 @@
       <c r="E5" s="3">
         <v>34</v>
       </c>
-      <c r="F5" s="87">
+      <c r="F5" s="88">
         <v>35</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="88">
         <v>36</v>
       </c>
       <c r="H5" s="3">
         <v>37</v>
       </c>
       <c r="I5"/>
-      <c r="J5" s="99">
+      <c r="J5" s="100">
         <v>37</v>
       </c>
-      <c r="K5" s="102">
+      <c r="K5" s="103">
         <v>36</v>
       </c>
-      <c r="L5" s="102">
+      <c r="L5" s="103">
         <v>35</v>
       </c>
-      <c r="M5" s="101">
+      <c r="M5" s="102">
         <v>34</v>
       </c>
-      <c r="N5" s="96">
+      <c r="N5" s="97">
         <v>33</v>
       </c>
-      <c r="O5" s="97">
+      <c r="O5" s="98">
         <v>32</v>
       </c>
-      <c r="P5" s="98">
+      <c r="P5" s="99">
         <v>31</v>
       </c>
-      <c r="Q5" s="98">
+      <c r="Q5" s="99">
         <v>30</v>
       </c>
     </row>
@@ -2632,17 +2675,17 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="3">
         <v>38</v>
       </c>
       <c r="I6"/>
-      <c r="J6" s="99">
+      <c r="J6" s="100">
         <v>38</v>
       </c>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -2665,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2695,24 +2738,24 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95">
+      <c r="K1" s="96"/>
+      <c r="L1" s="96">
         <v>6</v>
       </c>
-      <c r="M1" s="100">
+      <c r="M1" s="101">
         <v>7</v>
       </c>
-      <c r="N1" s="96">
+      <c r="N1" s="97">
         <v>8</v>
       </c>
-      <c r="O1" s="96">
+      <c r="O1" s="97">
         <v>9</v>
       </c>
-      <c r="P1" s="96">
+      <c r="P1" s="97">
         <v>0</v>
       </c>
-      <c r="Q1" s="96" t="s">
-        <v>5</v>
+      <c r="Q1" s="97" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,32 +2780,30 @@
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="96" t="s">
+      <c r="N2" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="97" t="s">
-        <v>6</v>
+      <c r="Q2" s="98" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -2781,28 +2822,30 @@
       <c r="G3" s="76"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95" t="s">
+      <c r="K3" s="96"/>
+      <c r="L3" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="100" t="s">
+      <c r="M3" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="96" t="s">
+      <c r="N3" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="97" t="s">
+      <c r="O3" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="98" t="s">
+      <c r="P3" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="Q3" s="99" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -2820,52 +2863,52 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="95" t="s">
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="98"/>
+      <c r="Q4" s="99"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="55"/>
       <c r="D5" s="54" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="106" t="s">
+      <c r="J5" s="100"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="101" t="s">
+      <c r="M5" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="96" t="s">
+      <c r="N5" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -2873,12 +2916,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="103"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -2940,7 +2983,7 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "-"</v>
+        <v>"1": "]"</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3041,13 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "="</v>
+        <v>"8": "["</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
-        <v>"15": "`"</v>
+        <v>"15": ""</v>
       </c>
       <c r="B10" t="str">
         <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
@@ -3062,7 +3105,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": ""</v>
+        <v>"22": "`"</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -3140,11 +3183,11 @@
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": "["</v>
+        <v>"33": "-"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": "]"</v>
+        <v>"34": "="</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -3204,19 +3247,19 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "`","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
-        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "`","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "-","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "=","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
   </sheetData>
@@ -3225,7 +3268,7 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3233,10 +3276,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3246,9 +3289,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="54"/>
       <c r="B1" s="54">
         <v>1</v>
       </c>
@@ -3267,24 +3308,24 @@
       <c r="G1" s="52"/>
       <c r="H1" s="2"/>
       <c r="J1" s="27"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95">
+      <c r="K1" s="96"/>
+      <c r="L1" s="96">
         <v>6</v>
       </c>
-      <c r="M1" s="100">
+      <c r="M1" s="101">
         <v>7</v>
       </c>
-      <c r="N1" s="96">
+      <c r="N1" s="97">
         <v>8</v>
       </c>
-      <c r="O1" s="96">
+      <c r="O1" s="97">
         <v>9</v>
       </c>
-      <c r="P1" s="96">
+      <c r="P1" s="97">
         <v>0</v>
       </c>
-      <c r="Q1" s="108" t="s">
-        <v>35</v>
+      <c r="Q1" s="109" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,30 +3346,30 @@
         <v>15</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2"/>
       <c r="J2" s="27"/>
-      <c r="K2" s="95" t="s">
+      <c r="K2" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="95" t="s">
+      <c r="L2" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="96" t="s">
+      <c r="N2" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="97" t="s">
+      <c r="O2" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="97" t="s">
+      <c r="P2" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="107" t="s">
-        <v>36</v>
+      <c r="Q2" s="108" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,35 +3389,33 @@
       <c r="F3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="76" t="s">
-        <v>6</v>
-      </c>
+      <c r="G3" s="76"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="95" t="s">
+      <c r="K3" s="76"/>
+      <c r="L3" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="100" t="s">
+      <c r="M3" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="96" t="s">
+      <c r="N3" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="97" t="s">
+      <c r="O3" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="98" t="s">
+      <c r="P3" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="Q3" s="99" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
@@ -3394,48 +3433,52 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="95" t="s">
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="M4" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="96" t="s">
+      <c r="N4" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="98" t="s">
+      <c r="P4" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="98"/>
+      <c r="Q4" s="99"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="55"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="106" t="s">
+      <c r="J5" s="100"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="101" t="s">
+      <c r="M5" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="96" t="s">
+      <c r="N5" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="98"/>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -3443,12 +3486,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="3"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="103"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="104"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -3458,7 +3501,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
-        <v>"1": "`"</v>
+        <v>"1": ""</v>
       </c>
       <c r="B8" t="str">
         <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
@@ -3510,7 +3553,7 @@
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
-        <v>"1": "["</v>
+        <v>"1": "]"</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,7 +3583,7 @@
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
-        <v>"14": "-"</v>
+        <v>"14": "\\"</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
@@ -3568,7 +3611,7 @@
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
-        <v>"8": "]"</v>
+        <v>"8": "["</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,11 +3641,11 @@
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
-        <v>"21": "="</v>
+        <v>"21": ""</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
-        <v>"21": "\\"</v>
+        <v>"21": ""</v>
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
@@ -3632,7 +3675,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
-        <v>"22": ""</v>
+        <v>"22": "`"</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
@@ -3710,11 +3753,11 @@
       </c>
       <c r="D12" t="str">
         <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
-        <v>"33": ""</v>
+        <v>"33": "-"</v>
       </c>
       <c r="E12" t="str">
         <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
-        <v>"34": ""</v>
+        <v>"34": "="</v>
       </c>
       <c r="F12" t="str">
         <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
@@ -3774,19 +3817,2315 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "`","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "-","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "=","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "[","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "]","21": "\\","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
-        <v>{left: {"1": "`","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "-","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "=","22": "","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "","34": "","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "[","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "]","21": "\\","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{56FF858C-D053-4773-B17F-B101BCB7C75E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCC6E8-8838-49B0-A240-A4CF935DB5EC}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96">
+        <v>6</v>
+      </c>
+      <c r="M1" s="101">
+        <v>7</v>
+      </c>
+      <c r="N1" s="97">
+        <v>8</v>
+      </c>
+      <c r="O1" s="97">
+        <v>9</v>
+      </c>
+      <c r="P1" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "y"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "p"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "o"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "k"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "d"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "l"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "c"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "w"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "i"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "n"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": ","</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "m"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "h"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "t"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "r"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "q"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "z"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "/"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "."</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": ";"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "f"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "g"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "v"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "x"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "y","10": "p","11": "o","12": "u","13": "j","14": "\\","15": "","16": "i","17": "n","18": "e","19": "a","20": ",","21": "","22": "`","23": "q","24": "z","25": "/","26": ".","27": ";","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "d","11": "l","10": "c","9": "w","8": "[","21": "","20": "m","19": "h","18": "t","17": "s","16": "r","15": "'","29": "","28": "","27": "b","26": "f","25": "g","24": "v","23": "x","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "y","10": "p","11": "o","12": "u","13": "j","14": "\\","15": "","16": "i","17": "n","18": "e","19": "a","20": ",","21": "","22": "`","23": "q","24": "z","25": "/","26": ".","27": ";","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "d","11": "l","10": "c","9": "w","8": "[","21": "","20": "m","19": "h","18": "t","17": "s","16": "r","15": "'","29": "","28": "","27": "b","26": "f","25": "g","24": "v","23": "x","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{8C12272F-70D4-459A-BF7C-F64AD58C34C5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96">
+        <v>6</v>
+      </c>
+      <c r="M1" s="101">
+        <v>7</v>
+      </c>
+      <c r="N1" s="97">
+        <v>8</v>
+      </c>
+      <c r="O1" s="97">
+        <v>9</v>
+      </c>
+      <c r="P1" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "="</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": ","</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "f"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "h"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "d"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "k"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "c"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "l"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "."</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "/"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "a"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "n"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "m"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "s"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "i"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "q"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "b"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "p"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "z"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "y"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "w"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "'"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "v"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": ";"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "["</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "]"</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": ",","10": "f","11": "h","12": "d","13": "k","14": "\\","15": "","16": "o","17": "a","18": "n","19": "t","20": "g","21": "","22": "`","23": "q","24": "x","25": "b","26": "p","27": "z","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "\"","13": "j","12": "c","11": "u","10": "l","9": ".","8": "/","21": "","20": "m","19": "s","18": "e","17": "r","16": "i","15": "-","29": "","28": "","27": "y","26": "w","25": "'","24": "v","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{F462A076-916C-47CB-ACC3-E666CF9EB88E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE1B9F7-56A1-4B2B-8844-93D3218A2256}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>4</v>
+      </c>
+      <c r="C1" s="54">
+        <v>0</v>
+      </c>
+      <c r="D1" s="54">
+        <v>1</v>
+      </c>
+      <c r="E1" s="52">
+        <v>2</v>
+      </c>
+      <c r="F1" s="52">
+        <v>3</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96">
+        <v>7</v>
+      </c>
+      <c r="M1" s="101">
+        <v>6</v>
+      </c>
+      <c r="N1" s="97">
+        <v>5</v>
+      </c>
+      <c r="O1" s="97">
+        <v>9</v>
+      </c>
+      <c r="P1" s="97">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="78"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="99"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="96" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "4"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "0"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "1"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "2"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "3"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "7"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "6"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "5"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "8"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "h"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "o"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "x"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "'"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "c"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "r"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "f"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "z"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "y"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "."</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": "\\"</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "s"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "t"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "n"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "b"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "j"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "/"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "k"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "'"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "w"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "l"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "p"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "v"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": "","9": "q","10": "h","11": "o","12": "u","13": "x","14": "'","15": "","16": "y","17": "i","18": "e","19": "a","20": ".","21": "","22": "`","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": "","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": "","9": "q","10": "h","11": "o","12": "u","13": "x","14": "'","15": "","16": "y","17": "i","18": "e","19": "a","20": ".","21": "","22": "`","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": "","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{74B7D92D-F350-482E-9D42-C4BE77FB6B6F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F82B80-7F41-4926-8A25-14D35408A7A1}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96">
+        <v>6</v>
+      </c>
+      <c r="M1" s="101">
+        <v>7</v>
+      </c>
+      <c r="N1" s="97">
+        <v>8</v>
+      </c>
+      <c r="O1" s="97">
+        <v>9</v>
+      </c>
+      <c r="P1" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="98" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "="</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "\""</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": ","</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "."</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "p"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "y"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "'"</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "f"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "g"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "c"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "r"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "l"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "/"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "o"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "u"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "i"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "h"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "t"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "n"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "s"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "-"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": ";"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "q"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "j"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "k"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "x"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": "w"</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "v"</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "["</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "]"</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "\\","15": "","16": "a","17": "o","18": "e","19": "u","20": "i","21": "","22": "`","23": ";","24": "q","25": "j","26": "k","27": "x","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "'","13": "f","12": "g","11": "c","10": "r","9": "l","8": "/","21": "","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "b","26": "m","25": "w","24": "v","23": "z","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
+        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "\\","15": "","16": "a","17": "o","18": "e","19": "u","20": "i","21": "","22": "`","23": ";","24": "q","25": "j","26": "k","27": "x","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "'","13": "f","12": "g","11": "c","10": "r","9": "l","8": "/","21": "","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "b","26": "m","25": "w","24": "v","23": "z","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
   </sheetData>
@@ -3798,4 +6137,581 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F36D-A06F-4E02-AC07-5A63EE7CD312}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96">
+        <v>6</v>
+      </c>
+      <c r="M1" s="101">
+        <v>7</v>
+      </c>
+      <c r="N1" s="97">
+        <v>8</v>
+      </c>
+      <c r="O1" s="97">
+        <v>9</v>
+      </c>
+      <c r="P1" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "d"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "r"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "w"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "b"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "f"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "p"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "h"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "y"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "o"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "i"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "m"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "c"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "v"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "l"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "d","11": "r","12": "w","13": "b","14": "\\","15": "","16": "a","17": "s","18": "h","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "u","10": "p","9": ";","8": "[","21": "","20": "y","19": "n","18": "e","17": "o","16": "i","15": "'","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
+        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "d","11": "r","12": "w","13": "b","14": "\\","15": "","16": "a","17": "s","18": "h","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "u","10": "p","9": ";","8": "[","21": "","20": "y","19": "n","18": "e","17": "o","16": "i","15": "'","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{A6C0C7B0-1D3F-46C4-A964-9FB8A729FD5D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B91569-A5C9-4F2E-BB6C-9082158647B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31563A4-756C-48CA-A761-7FD13FFBB328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31332" yWindow="4152" windowWidth="22536" windowHeight="13176" activeTab="8" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="31332" yWindow="4152" windowWidth="22536" windowHeight="13176" firstSheet="1" activeTab="11" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Breakl15" sheetId="6" r:id="rId7"/>
     <sheet name="Dvorak" sheetId="9" r:id="rId8"/>
     <sheet name="Workman" sheetId="10" r:id="rId9"/>
+    <sheet name="Niro" sheetId="12" r:id="rId10"/>
+    <sheet name="Soul" sheetId="13" r:id="rId11"/>
+    <sheet name="Kaehi" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="54">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -198,6 +201,9 @@
   </si>
   <si>
     <t>https://colemak.com/</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -2409,307 +2415,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224431CD-CF00-47DD-8ACA-64FF62A3AD19}">
-  <dimension ref="A1:Q6"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDBB2D6-01F8-44E3-8C08-222DAA0B7703}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="4.77734375" style="81"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="54">
-        <v>1</v>
-      </c>
-      <c r="B1" s="54">
-        <v>2</v>
-      </c>
-      <c r="C1" s="54">
-        <v>3</v>
-      </c>
-      <c r="D1" s="54">
-        <v>4</v>
-      </c>
-      <c r="E1" s="52">
-        <v>5</v>
-      </c>
-      <c r="F1" s="52">
-        <v>6</v>
-      </c>
-      <c r="G1" s="53">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1"/>
-      <c r="J1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="96">
-        <v>7</v>
-      </c>
-      <c r="L1" s="96">
-        <v>6</v>
-      </c>
-      <c r="M1" s="101">
-        <v>5</v>
-      </c>
-      <c r="N1" s="97">
-        <v>4</v>
-      </c>
-      <c r="O1" s="97">
-        <v>3</v>
-      </c>
-      <c r="P1" s="97">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="55">
-        <v>8</v>
-      </c>
-      <c r="B2" s="55">
-        <v>9</v>
-      </c>
-      <c r="C2" s="55">
-        <v>10</v>
-      </c>
-      <c r="D2" s="54">
-        <v>11</v>
-      </c>
-      <c r="E2" s="52">
-        <v>12</v>
-      </c>
-      <c r="F2" s="52">
-        <v>13</v>
-      </c>
-      <c r="G2" s="53">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="96">
-        <v>14</v>
-      </c>
-      <c r="L2" s="96">
-        <v>13</v>
-      </c>
-      <c r="M2" s="101">
-        <v>12</v>
-      </c>
-      <c r="N2" s="97">
-        <v>11</v>
-      </c>
-      <c r="O2" s="98">
-        <v>10</v>
-      </c>
-      <c r="P2" s="98">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="98">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1">
-        <v>16</v>
-      </c>
-      <c r="C3" s="55">
-        <v>17</v>
-      </c>
-      <c r="D3" s="54">
-        <v>18</v>
-      </c>
-      <c r="E3" s="52">
-        <v>19</v>
-      </c>
-      <c r="F3" s="52">
-        <v>20</v>
-      </c>
-      <c r="G3" s="76">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="96">
-        <v>21</v>
-      </c>
-      <c r="L3" s="96">
-        <v>20</v>
-      </c>
-      <c r="M3" s="101">
-        <v>19</v>
-      </c>
-      <c r="N3" s="97">
-        <v>18</v>
-      </c>
-      <c r="O3" s="98">
-        <v>17</v>
-      </c>
-      <c r="P3" s="99">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="99">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1">
-        <v>23</v>
-      </c>
-      <c r="C4" s="55">
-        <v>24</v>
-      </c>
-      <c r="D4" s="54">
-        <v>25</v>
-      </c>
-      <c r="E4" s="52">
-        <v>26</v>
-      </c>
-      <c r="F4" s="77">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3">
-        <v>29</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4" s="100">
-        <v>29</v>
-      </c>
-      <c r="K4" s="100">
-        <v>28</v>
-      </c>
-      <c r="L4" s="96">
-        <v>27</v>
-      </c>
-      <c r="M4" s="101">
-        <v>26</v>
-      </c>
-      <c r="N4" s="97">
-        <v>25</v>
-      </c>
-      <c r="O4" s="98">
-        <v>24</v>
-      </c>
-      <c r="P4" s="99">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="99">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1">
-        <v>31</v>
-      </c>
-      <c r="C5" s="55">
-        <v>32</v>
-      </c>
-      <c r="D5" s="54">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3">
-        <v>34</v>
-      </c>
-      <c r="F5" s="88">
-        <v>35</v>
-      </c>
-      <c r="G5" s="88">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3">
-        <v>37</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" s="100">
-        <v>37</v>
-      </c>
-      <c r="K5" s="103">
-        <v>36</v>
-      </c>
-      <c r="L5" s="103">
-        <v>35</v>
-      </c>
-      <c r="M5" s="102">
-        <v>34</v>
-      </c>
-      <c r="N5" s="97">
-        <v>33</v>
-      </c>
-      <c r="O5" s="98">
-        <v>32</v>
-      </c>
-      <c r="P5" s="99">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="99">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="3">
-        <v>38</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" s="100">
-        <v>38</v>
-      </c>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
-  <dimension ref="A1:Q18"/>
-  <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2754,7 +2465,7 @@
       <c r="P1" s="97">
         <v>0</v>
       </c>
-      <c r="Q1" s="97" t="s">
+      <c r="Q1" s="109" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2767,13 +2478,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E2" s="52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="G2" s="76" t="s">
         <v>47</v>
@@ -2784,21 +2495,21 @@
         <v>48</v>
       </c>
       <c r="L2" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="97" t="s">
-        <v>25</v>
-      </c>
       <c r="O2" s="98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" s="98" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="108" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2811,10 +2522,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="54" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>15</v>
@@ -2822,21 +2533,21 @@
       <c r="G3" s="76"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="96"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="96" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="101" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N3" s="97" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O3" s="98" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P3" s="99" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="99" t="s">
         <v>38</v>
@@ -2866,7 +2577,7 @@
       <c r="J4" s="100"/>
       <c r="K4" s="100"/>
       <c r="L4" s="96" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M4" s="101" t="s">
         <v>24</v>
@@ -3001,15 +2712,15 @@
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "e"</v>
+        <v>"11": "u"</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "r"</v>
+        <v>"12": "d"</v>
       </c>
       <c r="F9" t="str">
         <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "t"</v>
+        <v>"13": "p"</v>
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
@@ -3021,23 +2732,23 @@
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "y"</v>
+        <v>"13": "j"</v>
       </c>
       <c r="M9" t="str">
         <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "u"</v>
+        <v>"12": "f"</v>
       </c>
       <c r="N9" t="str">
         <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
-        <v>"11": "i"</v>
+        <v>"11": "y"</v>
       </c>
       <c r="O9" t="str">
         <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
-        <v>"10": "o"</v>
+        <v>"10": "l"</v>
       </c>
       <c r="P9" t="str">
         <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
-        <v>"9": "p"</v>
+        <v>"9": ";"</v>
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
@@ -3059,11 +2770,11 @@
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "d"</v>
+        <v>"18": "e"</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
-        <v>"19": "f"</v>
+        <v>"19": "t"</v>
       </c>
       <c r="F10" t="str">
         <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
@@ -3083,19 +2794,19 @@
       </c>
       <c r="M10" t="str">
         <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
-        <v>"19": "j"</v>
+        <v>"19": "n"</v>
       </c>
       <c r="N10" t="str">
         <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
-        <v>"18": "k"</v>
+        <v>"18": "i"</v>
       </c>
       <c r="O10" t="str">
         <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
-        <v>"17": "l"</v>
+        <v>"17": "r"</v>
       </c>
       <c r="P10" t="str">
         <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
-        <v>"16": ";"</v>
+        <v>"16": "o"</v>
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
@@ -3145,7 +2856,7 @@
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "n"</v>
+        <v>"27": "k"</v>
       </c>
       <c r="M11" t="str">
         <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
@@ -3247,39 +2958,46 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "u","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "y","10": "l","9": ";","8": "[","21": "","20": "h","19": "n","18": "i","17": "r","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
-        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "u","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "e","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "y","10": "l","9": ";","8": "[","21": "","20": "h","19": "n","18": "i","17": "r","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="L5:L6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{12AB37BC-7E5F-46E8-A76D-6AB5B374B5E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA6E5BD-99B9-4E87-94B2-03F98F639228}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3337,13 +3055,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="52" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="76" t="s">
         <v>47</v>
@@ -3354,10 +3072,10 @@
         <v>48</v>
       </c>
       <c r="L2" s="96" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="M2" s="101" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N2" s="97" t="s">
         <v>23</v>
@@ -3378,23 +3096,23 @@
         <v>11</v>
       </c>
       <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="54" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" s="76"/>
       <c r="H3" s="2"/>
       <c r="J3" s="27"/>
       <c r="K3" s="76"/>
       <c r="L3" s="96" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M3" s="101" t="s">
         <v>22</v>
@@ -3429,17 +3147,17 @@
         <v>19</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="J4" s="100"/>
       <c r="K4" s="100"/>
       <c r="L4" s="96" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="M4" s="101" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N4" s="97" t="s">
         <v>27</v>
@@ -3571,15 +3289,15 @@
       </c>
       <c r="D9" t="str">
         <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
-        <v>"11": "f"</v>
+        <v>"11": "l"</v>
       </c>
       <c r="E9" t="str">
         <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
-        <v>"12": "p"</v>
+        <v>"12": "d"</v>
       </c>
       <c r="F9" t="str">
         <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
-        <v>"13": "g"</v>
+        <v>"13": "p"</v>
       </c>
       <c r="G9" t="str">
         <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
@@ -3591,11 +3309,11 @@
       </c>
       <c r="L9" t="str">
         <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
-        <v>"13": "j"</v>
+        <v>"13": "k"</v>
       </c>
       <c r="M9" t="str">
         <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
-        <v>"12": "l"</v>
+        <v>"12": "m"</v>
       </c>
       <c r="N9" t="str">
         <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
@@ -3625,11 +3343,11 @@
       </c>
       <c r="C10" t="str">
         <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
-        <v>"17": "r"</v>
+        <v>"17": "s"</v>
       </c>
       <c r="D10" t="str">
         <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
-        <v>"18": "s"</v>
+        <v>"18": "r"</v>
       </c>
       <c r="E10" t="str">
         <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
@@ -3637,7 +3355,7 @@
       </c>
       <c r="F10" t="str">
         <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
-        <v>"20": "d"</v>
+        <v>"20": "g"</v>
       </c>
       <c r="G10" t="str">
         <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
@@ -3649,7 +3367,7 @@
       </c>
       <c r="L10" t="str">
         <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
-        <v>"20": "h"</v>
+        <v>"20": "f"</v>
       </c>
       <c r="M10" t="str">
         <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
@@ -3695,7 +3413,7 @@
       </c>
       <c r="F11" t="str">
         <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
-        <v>"27": "b"</v>
+        <v>"27": "j"</v>
       </c>
       <c r="G11" t="str">
         <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
@@ -3715,11 +3433,11 @@
       </c>
       <c r="L11" t="str">
         <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
-        <v>"27": "k"</v>
+        <v>"27": "b"</v>
       </c>
       <c r="M11" t="str">
         <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
-        <v>"26": "m"</v>
+        <v>"26": "h"</v>
       </c>
       <c r="N11" t="str">
         <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
@@ -3817,19 +3535,2041 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
-        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "r","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "m","11": "u","10": "y","9": ";","8": "[","21": "","20": "f","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "b","26": "h","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
-        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "p","14": "\\","15": "","16": "a","17": "s","18": "r","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "j","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "k","12": "m","11": "u","10": "y","9": ";","8": "[","21": "","20": "f","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "b","26": "h","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{A1781786-FCAE-4CC3-9774-0B1BC31DE260}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2B976-8DBD-44BC-8A4B-199C621F6D1E}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96">
+        <v>6</v>
+      </c>
+      <c r="M1" s="101">
+        <v>7</v>
+      </c>
+      <c r="N1" s="97">
+        <v>8</v>
+      </c>
+      <c r="O1" s="97">
+        <v>9</v>
+      </c>
+      <c r="P1" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "l"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "d"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "o"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "p"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "/"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "n"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "s"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "m"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "k"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "a"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "h"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "i"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "y"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "f"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": ";"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "m","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "o","10": "p","9": "/","8": "[","21": "","20": "k","19": "a","18": "e","17": "h","16": "i","15": "'","29": "","28": "","27": "y","26": "f","25": ",","24": ".","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "l","12": "d","13": "g","14": "\\","15": "","16": "n","17": "r","18": "s","19": "t","20": "m","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "u","11": "o","10": "p","9": "/","8": "[","21": "","20": "k","19": "a","18": "e","17": "h","16": "i","15": "'","29": "","28": "","27": "y","26": "f","25": ",","24": ".","23": ";","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="110" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" xr:uid="{13F4AE17-EC3D-4FD3-BD35-FC63C56C124E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224431CD-CF00-47DD-8ACA-64FF62A3AD19}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5:L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="4.77734375" style="81"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54">
+        <v>1</v>
+      </c>
+      <c r="B1" s="54">
+        <v>2</v>
+      </c>
+      <c r="C1" s="54">
+        <v>3</v>
+      </c>
+      <c r="D1" s="54">
+        <v>4</v>
+      </c>
+      <c r="E1" s="52">
+        <v>5</v>
+      </c>
+      <c r="F1" s="52">
+        <v>6</v>
+      </c>
+      <c r="G1" s="53">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1"/>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="96">
+        <v>7</v>
+      </c>
+      <c r="L1" s="96">
+        <v>6</v>
+      </c>
+      <c r="M1" s="101">
+        <v>5</v>
+      </c>
+      <c r="N1" s="97">
+        <v>4</v>
+      </c>
+      <c r="O1" s="97">
+        <v>3</v>
+      </c>
+      <c r="P1" s="97">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55">
+        <v>8</v>
+      </c>
+      <c r="B2" s="55">
+        <v>9</v>
+      </c>
+      <c r="C2" s="55">
+        <v>10</v>
+      </c>
+      <c r="D2" s="54">
+        <v>11</v>
+      </c>
+      <c r="E2" s="52">
+        <v>12</v>
+      </c>
+      <c r="F2" s="52">
+        <v>13</v>
+      </c>
+      <c r="G2" s="53">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="96">
+        <v>14</v>
+      </c>
+      <c r="L2" s="96">
+        <v>13</v>
+      </c>
+      <c r="M2" s="101">
+        <v>12</v>
+      </c>
+      <c r="N2" s="97">
+        <v>11</v>
+      </c>
+      <c r="O2" s="98">
+        <v>10</v>
+      </c>
+      <c r="P2" s="98">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1">
+        <v>16</v>
+      </c>
+      <c r="C3" s="55">
+        <v>17</v>
+      </c>
+      <c r="D3" s="54">
+        <v>18</v>
+      </c>
+      <c r="E3" s="52">
+        <v>19</v>
+      </c>
+      <c r="F3" s="52">
+        <v>20</v>
+      </c>
+      <c r="G3" s="76">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="96">
+        <v>21</v>
+      </c>
+      <c r="L3" s="96">
+        <v>20</v>
+      </c>
+      <c r="M3" s="101">
+        <v>19</v>
+      </c>
+      <c r="N3" s="97">
+        <v>18</v>
+      </c>
+      <c r="O3" s="98">
+        <v>17</v>
+      </c>
+      <c r="P3" s="99">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="99">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1">
+        <v>23</v>
+      </c>
+      <c r="C4" s="55">
+        <v>24</v>
+      </c>
+      <c r="D4" s="54">
+        <v>25</v>
+      </c>
+      <c r="E4" s="52">
+        <v>26</v>
+      </c>
+      <c r="F4" s="77">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3">
+        <v>29</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4" s="100">
+        <v>29</v>
+      </c>
+      <c r="K4" s="100">
+        <v>28</v>
+      </c>
+      <c r="L4" s="96">
+        <v>27</v>
+      </c>
+      <c r="M4" s="101">
+        <v>26</v>
+      </c>
+      <c r="N4" s="97">
+        <v>25</v>
+      </c>
+      <c r="O4" s="98">
+        <v>24</v>
+      </c>
+      <c r="P4" s="99">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="99">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
+        <v>31</v>
+      </c>
+      <c r="C5" s="55">
+        <v>32</v>
+      </c>
+      <c r="D5" s="54">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3">
+        <v>34</v>
+      </c>
+      <c r="F5" s="88">
+        <v>35</v>
+      </c>
+      <c r="G5" s="88">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3">
+        <v>37</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="100">
+        <v>37</v>
+      </c>
+      <c r="K5" s="103">
+        <v>36</v>
+      </c>
+      <c r="L5" s="103">
+        <v>35</v>
+      </c>
+      <c r="M5" s="102">
+        <v>34</v>
+      </c>
+      <c r="N5" s="97">
+        <v>33</v>
+      </c>
+      <c r="O5" s="98">
+        <v>32</v>
+      </c>
+      <c r="P5" s="99">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="99">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="3">
+        <v>38</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="100">
+        <v>38</v>
+      </c>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96">
+        <v>6</v>
+      </c>
+      <c r="M1" s="101">
+        <v>7</v>
+      </c>
+      <c r="N1" s="97">
+        <v>8</v>
+      </c>
+      <c r="O1" s="97">
+        <v>9</v>
+      </c>
+      <c r="P1" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="96" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "e"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "r"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "t"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "y"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "u"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "i"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "o"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": "p"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "s"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "d"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "f"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "g"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "j"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "k"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "l"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": ";"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "n"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "e","12": "r","13": "t","14": "\\","15": "","16": "a","17": "s","18": "d","19": "f","20": "g","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "y","12": "u","11": "i","10": "o","9": "p","8": "[","21": "","20": "h","19": "j","18": "k","17": "l","16": ";","15": "'","29": "","28": "","27": "n","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="4.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54">
+        <v>1</v>
+      </c>
+      <c r="C1" s="54">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54">
+        <v>3</v>
+      </c>
+      <c r="E1" s="52">
+        <v>4</v>
+      </c>
+      <c r="F1" s="52">
+        <v>5</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96">
+        <v>6</v>
+      </c>
+      <c r="M1" s="101">
+        <v>7</v>
+      </c>
+      <c r="N1" s="97">
+        <v>8</v>
+      </c>
+      <c r="O1" s="97">
+        <v>9</v>
+      </c>
+      <c r="P1" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="2"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="99"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="3"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="107" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="98"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A1,""": ", """",A1,"""")</f>
+        <v>"1": ""</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B1,""": ", """",B1,"""")</f>
+        <v>"2": "1"</v>
+      </c>
+      <c r="C8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C1,""": ", """",C1,"""")</f>
+        <v>"3": "2"</v>
+      </c>
+      <c r="D8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D1,""": ", """",D1,"""")</f>
+        <v>"4": "3"</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E1,""": ", """",E1,"""")</f>
+        <v>"5": "4"</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F1,""": ", """",F1,"""")</f>
+        <v>"6": "5"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G1,""": ", """",G1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="K8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K1,""": ", """",K1,"""")</f>
+        <v>"7": ""</v>
+      </c>
+      <c r="L8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L1,""": ", """",L1,"""")</f>
+        <v>"6": "6"</v>
+      </c>
+      <c r="M8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M1,""": ", """",M1,"""")</f>
+        <v>"5": "7"</v>
+      </c>
+      <c r="N8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N1,""": ", """",N1,"""")</f>
+        <v>"4": "8"</v>
+      </c>
+      <c r="O8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O1,""": ", """",O1,"""")</f>
+        <v>"3": "9"</v>
+      </c>
+      <c r="P8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P1,""": ", """",P1,"""")</f>
+        <v>"2": "0"</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q1,""": ", """",Q1,"""")</f>
+        <v>"1": "]"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A2,""": ", """",A2,"""")</f>
+        <v>"8": ""</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B2,""": ", """",B2,"""")</f>
+        <v>"9": "q"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C2,""": ", """",C2,"""")</f>
+        <v>"10": "w"</v>
+      </c>
+      <c r="D9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D2,""": ", """",D2,"""")</f>
+        <v>"11": "f"</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E2,""": ", """",E2,"""")</f>
+        <v>"12": "p"</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F2,""": ", """",F2,"""")</f>
+        <v>"13": "g"</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G2,""": ", """",G2,"""")</f>
+        <v>"14": "\\"</v>
+      </c>
+      <c r="K9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K2,""": ", """",K2,"""")</f>
+        <v>"14": "\""</v>
+      </c>
+      <c r="L9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L2,""": ", """",L2,"""")</f>
+        <v>"13": "j"</v>
+      </c>
+      <c r="M9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M2,""": ", """",M2,"""")</f>
+        <v>"12": "l"</v>
+      </c>
+      <c r="N9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N2,""": ", """",N2,"""")</f>
+        <v>"11": "u"</v>
+      </c>
+      <c r="O9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O2,""": ", """",O2,"""")</f>
+        <v>"10": "y"</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P2,""": ", """",P2,"""")</f>
+        <v>"9": ";"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q2,""": ", """",Q2,"""")</f>
+        <v>"8": "["</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A3,""": ", """",A3,"""")</f>
+        <v>"15": ""</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B3,""": ", """",B3,"""")</f>
+        <v>"16": "a"</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C3,""": ", """",C3,"""")</f>
+        <v>"17": "r"</v>
+      </c>
+      <c r="D10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D3,""": ", """",D3,"""")</f>
+        <v>"18": "s"</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E3,""": ", """",E3,"""")</f>
+        <v>"19": "t"</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F3,""": ", """",F3,"""")</f>
+        <v>"20": "d"</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G3,""": ", """",G3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="K10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K3,""": ", """",K3,"""")</f>
+        <v>"21": ""</v>
+      </c>
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L3,""": ", """",L3,"""")</f>
+        <v>"20": "h"</v>
+      </c>
+      <c r="M10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M3,""": ", """",M3,"""")</f>
+        <v>"19": "n"</v>
+      </c>
+      <c r="N10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N3,""": ", """",N3,"""")</f>
+        <v>"18": "e"</v>
+      </c>
+      <c r="O10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O3,""": ", """",O3,"""")</f>
+        <v>"17": "i"</v>
+      </c>
+      <c r="P10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P3,""": ", """",P3,"""")</f>
+        <v>"16": "o"</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
+        <v>"15": "'"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A4,""": ", """",A4,"""")</f>
+        <v>"22": "`"</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B4,""": ", """",B4,"""")</f>
+        <v>"23": "z"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C4,""": ", """",C4,"""")</f>
+        <v>"24": "x"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D4,""": ", """",D4,"""")</f>
+        <v>"25": "c"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E4,""": ", """",E4,"""")</f>
+        <v>"26": "v"</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F4,""": ", """",F4,"""")</f>
+        <v>"27": "b"</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G4,""": ", """",G4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H4,""": ", """",H4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J4,""": ", """",J4,"""")</f>
+        <v>"29": ""</v>
+      </c>
+      <c r="K11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K4,""": ", """",K4,"""")</f>
+        <v>"28": ""</v>
+      </c>
+      <c r="L11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L4,""": ", """",L4,"""")</f>
+        <v>"27": "k"</v>
+      </c>
+      <c r="M11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M4,""": ", """",M4,"""")</f>
+        <v>"26": "m"</v>
+      </c>
+      <c r="N11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N4,""": ", """",N4,"""")</f>
+        <v>"25": ","</v>
+      </c>
+      <c r="O11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O4,""": ", """",O4,"""")</f>
+        <v>"24": "."</v>
+      </c>
+      <c r="P11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P4,""": ", """",P4,"""")</f>
+        <v>"23": "/"</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q4,""": ", """",Q4,"""")</f>
+        <v>"22": ""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!A5,""": ", """",A5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!B5,""": ", """",B5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!C5,""": ", """",C5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="D12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!D5,""": ", """",D5,"""")</f>
+        <v>"33": "-"</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!E5,""": ", """",E5,"""")</f>
+        <v>"34": "="</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!F5,""": ", """",F5,"""")</f>
+        <v>"35": ""</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!G5,""": ", """",G5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="H12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H5,""": ", """",H5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J5,""": ", """",J5,"""")</f>
+        <v>"37": ""</v>
+      </c>
+      <c r="K12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!K5,""": ", """",K5,"""")</f>
+        <v>"36": ""</v>
+      </c>
+      <c r="L12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!L5,""": ", """",L5,"""")</f>
+        <v>"35": " "</v>
+      </c>
+      <c r="M12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!M5,""": ", """",M5,"""")</f>
+        <v>"34": "("</v>
+      </c>
+      <c r="N12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!N5,""": ", """",N5,"""")</f>
+        <v>"33": ")"</v>
+      </c>
+      <c r="O12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!O5,""": ", """",O5,"""")</f>
+        <v>"32": ""</v>
+      </c>
+      <c r="P12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!P5,""": ", """",P5,"""")</f>
+        <v>"31": ""</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>_xlfn.CONCAT("""",Keys!Q5,""": ", """",Q5,"""")</f>
+        <v>"30": ""</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!H6,""": ", """",H6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT("""",Keys!J6,""": ", """",J6,"""")</f>
+        <v>"38": ""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,A8:H13,)</f>
+        <v>"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
+        <v>"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "w","11": "f","12": "p","13": "g","14": "\\","15": "","16": "a","17": "r","18": "s","19": "t","20": "d","21": "","22": "`","23": "z","24": "x","25": "c","26": "v","27": "b","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "l","11": "u","10": "y","9": ";","8": "[","21": "","20": "h","19": "n","18": "e","17": "i","16": "o","15": "'","29": "","28": "","27": "k","26": "m","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -3855,7 +5595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCC6E8-8838-49B0-A240-A4CF935DB5EC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -4428,8 +6168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5001,8 +6741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE1B9F7-56A1-4B2B-8844-93D3218A2256}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5574,8 +7314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F82B80-7F41-4926-8A25-14D35408A7A1}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6124,8 +7864,8 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
-        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "\\","15": "","16": "a","17": "o","18": "e","19": "u","20": "i","21": "","22": "`","23": ";","24": "q","25": "j","26": "k","27": "x","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "'","13": "f","12": "g","11": "c","10": "r","9": "l","8": "/","21": "","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "b","26": "m","25": "w","24": "v","23": "z","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "\"","10": ",","11": ".","12": "p","13": "y","14": "\\","15": "","16": "a","17": "o","18": "e","19": "u","20": "i","21": "","22": "`","23": ";","24": "q","25": "j","26": "k","27": "x","28": "","29": "","30": "","31": "","32": "","33": "[","34": "]","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "=","14": "'","13": "f","12": "g","11": "c","10": "r","9": "l","8": "/","21": "","20": "d","19": "h","18": "t","17": "n","16": "s","15": "-","29": "","28": "","27": "b","26": "m","25": "w","24": "v","23": "z","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
   </sheetData>
@@ -6143,8 +7883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F36D-A06F-4E02-AC07-5A63EE7CD312}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6693,8 +8433,8 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>_xlfn.CONCAT("{","left: {",A15,"}",", right: {",A16,"}}")</f>
-        <v>{left: {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "d","11": "r","12": "w","13": "b","14": "\\","15": "","16": "a","17": "s","18": "h","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, right: {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "u","10": "p","9": ";","8": "[","21": "","20": "y","19": "n","18": "e","17": "o","16": "i","15": "'","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
+        <v>{"left": {"1": "","2": "1","3": "2","4": "3","5": "4","6": "5","7": "","8": "","9": "q","10": "d","11": "r","12": "w","13": "b","14": "\\","15": "","16": "a","17": "s","18": "h","19": "t","20": "g","21": "","22": "`","23": "z","24": "x","25": "m","26": "c","27": "v","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "6","5": "7","4": "8","3": "9","2": "0","1": "]","14": "\"","13": "j","12": "f","11": "u","10": "p","9": ";","8": "[","21": "","20": "y","19": "n","18": "e","17": "o","16": "i","15": "'","29": "","28": "","27": "k","26": "l","25": ",","24": ".","23": "/","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">

--- a/docs/layouts.xlsx
+++ b/docs/layouts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\ergo-layouts\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31563A4-756C-48CA-A761-7FD13FFBB328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD0E17-9BE2-4805-9046-A30F16E26634}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31332" yWindow="4152" windowWidth="22536" windowHeight="13176" firstSheet="1" activeTab="11" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
+    <workbookView xWindow="31332" yWindow="4152" windowWidth="22536" windowHeight="13176" firstSheet="1" activeTab="4" xr2:uid="{76A7A5CA-0E08-423E-A6CA-8240103AE293}"/>
   </bookViews>
   <sheets>
     <sheet name="Efforts" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="54">
   <si>
     <t>A finger has strength. It will be used as multiplication.</t>
   </si>
@@ -2419,7 +2419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDBB2D6-01F8-44E3-8C08-222DAA0B7703}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -2996,7 +2996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA6E5BD-99B9-4E87-94B2-03F98F639228}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -3573,8 +3573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F2B976-8DBD-44BC-8A4B-199C621F6D1E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4445,8 +4445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72793DDA-B6C7-455A-9895-0EBE1A35BEFB}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5015,8 +5015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F27715-3509-47E9-A9CB-5DE4634BE300}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5595,7 +5595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DCC6E8-8838-49B0-A240-A4CF935DB5EC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -6168,7 +6168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E1F72C-151E-43E5-9E9B-7B384388A13F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -6869,7 +6869,9 @@
       <c r="P3" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="99"/>
+      <c r="Q3" s="99" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -7128,7 +7130,7 @@
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.CONCAT("""",Keys!Q3,""": ", """",Q3,"""")</f>
-        <v>"15": ""</v>
+        <v>"15": ";"</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7284,13 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,J8:Q13,)</f>
-        <v>"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": "","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
+        <v>"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": ";","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT("{","""left"": {",A15,"}",", ""right"": {",A16,"}}")</f>
-        <v>{"left": {"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": "","9": "q","10": "h","11": "o","12": "u","13": "x","14": "'","15": "","16": "y","17": "i","18": "e","19": "a","20": ".","21": "","22": "`","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": "","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
+        <v>{"left": {"1": "","2": "4","3": "0","4": "1","5": "2","6": "3","7": "","8": "","9": "q","10": "h","11": "o","12": "u","13": "x","14": "'","15": "","16": "y","17": "i","18": "e","19": "a","20": ".","21": "","22": "`","23": "j","24": "/","25": ",","26": "k","27": "'","28": "","29": "","30": "","31": "","32": "","33": "-","34": "=","35": "","36": "","37": "","38": ""}, "right": {"7": "","6": "7","5": "6","4": "5","3": "9","2": "8","1": "]","14": "\"","13": "g","12": "c","11": "r","10": "f","9": "z","8": "[","21": "\\","20": "d","19": "s","18": "t","17": "n","16": "b","15": ";","29": "","28": "","27": "w","26": "m","25": "l","24": "p","23": "v","22": "","37": "","36": "","35": " ","34": "(","33": ")","32": "","31": "","30": "","38": ""}}</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -7314,7 +7316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F82B80-7F41-4926-8A25-14D35408A7A1}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -7883,7 +7885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D0F36D-A06F-4E02-AC07-5A63EE7CD312}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
